--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1224.439559529516</v>
+        <v>1422.921677971065</v>
       </c>
       <c r="AB2" t="n">
-        <v>1675.332223809219</v>
+        <v>1946.904214674015</v>
       </c>
       <c r="AC2" t="n">
-        <v>1515.440867712411</v>
+        <v>1761.094408922753</v>
       </c>
       <c r="AD2" t="n">
-        <v>1224439.559529516</v>
+        <v>1422921.677971065</v>
       </c>
       <c r="AE2" t="n">
-        <v>1675332.223809219</v>
+        <v>1946904.214674015</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.798214321751349e-07</v>
+        <v>9.800743667900907e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.70052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1515440.867712411</v>
+        <v>1761094.408922754</v>
       </c>
     </row>
     <row r="3">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>872.2966638255466</v>
+        <v>1027.611943289678</v>
       </c>
       <c r="AB3" t="n">
-        <v>1193.514778458927</v>
+        <v>1406.023995848289</v>
       </c>
       <c r="AC3" t="n">
-        <v>1079.607403111318</v>
+        <v>1271.8350390516</v>
       </c>
       <c r="AD3" t="n">
-        <v>872296.6638255466</v>
+        <v>1027611.943289678</v>
       </c>
       <c r="AE3" t="n">
-        <v>1193514.778458927</v>
+        <v>1406023.995848289</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.764736404524056e-07</v>
+        <v>1.263580857440958e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.67447916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1079607.403111318</v>
+        <v>1271835.0390516</v>
       </c>
     </row>
     <row r="4">
@@ -6839,28 +6839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>779.7132485642906</v>
+        <v>926.3098193783667</v>
       </c>
       <c r="AB4" t="n">
-        <v>1066.838065206464</v>
+        <v>1267.417960778542</v>
       </c>
       <c r="AC4" t="n">
-        <v>965.0205375797868</v>
+        <v>1146.457369434117</v>
       </c>
       <c r="AD4" t="n">
-        <v>779713.2485642906</v>
+        <v>926309.8193783667</v>
       </c>
       <c r="AE4" t="n">
-        <v>1066838.065206464</v>
+        <v>1267417.960778542</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.525902993476198e-07</v>
+        <v>1.373315535899412e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.90104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>965020.5375797868</v>
+        <v>1146457.369434118</v>
       </c>
     </row>
     <row r="5">
@@ -6945,28 +6945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>739.9055631566043</v>
+        <v>877.9541070297687</v>
       </c>
       <c r="AB5" t="n">
-        <v>1012.371433840533</v>
+        <v>1201.255541839723</v>
       </c>
       <c r="AC5" t="n">
-        <v>915.7521250670235</v>
+        <v>1086.60939889928</v>
       </c>
       <c r="AD5" t="n">
-        <v>739905.5631566043</v>
+        <v>877954.1070297686</v>
       </c>
       <c r="AE5" t="n">
-        <v>1012371.433840533</v>
+        <v>1201255.541839723</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.932278654735226e-07</v>
+        <v>1.431901268863586e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.59895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>915752.1250670234</v>
+        <v>1086609.39889928</v>
       </c>
     </row>
     <row r="6">
@@ -7051,28 +7051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>711.4362197412078</v>
+        <v>849.3994227598005</v>
       </c>
       <c r="AB6" t="n">
-        <v>973.4184222007988</v>
+        <v>1162.18576307779</v>
       </c>
       <c r="AC6" t="n">
-        <v>880.5167341872898</v>
+        <v>1051.268384987608</v>
       </c>
       <c r="AD6" t="n">
-        <v>711436.2197412078</v>
+        <v>849399.4227598005</v>
       </c>
       <c r="AE6" t="n">
-        <v>973418.4222007988</v>
+        <v>1162185.76307779</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.019743819016903e-06</v>
+        <v>1.470128375496154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.8046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>880516.7341872898</v>
+        <v>1051268.384987608</v>
       </c>
     </row>
     <row r="7">
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>700.677927770059</v>
+        <v>830.0078525017192</v>
       </c>
       <c r="AB7" t="n">
-        <v>958.6984525035283</v>
+        <v>1135.653361154981</v>
       </c>
       <c r="AC7" t="n">
-        <v>867.2016177383198</v>
+        <v>1027.268198265852</v>
       </c>
       <c r="AD7" t="n">
-        <v>700677.927770059</v>
+        <v>830007.8525017191</v>
       </c>
       <c r="AE7" t="n">
-        <v>958698.4525035283</v>
+        <v>1135653.361154981</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.034378944784244e-06</v>
+        <v>1.491227315512545e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.38802083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>867201.6177383198</v>
+        <v>1027268.198265852</v>
       </c>
     </row>
     <row r="8">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>681.1890669738955</v>
+        <v>810.6042430515762</v>
       </c>
       <c r="AB8" t="n">
-        <v>932.0329333743597</v>
+        <v>1109.104486678463</v>
       </c>
       <c r="AC8" t="n">
-        <v>843.0810183295481</v>
+        <v>1003.253111107793</v>
       </c>
       <c r="AD8" t="n">
-        <v>681189.0669738955</v>
+        <v>810604.2430515762</v>
       </c>
       <c r="AE8" t="n">
-        <v>932032.9333743597</v>
+        <v>1109104.486678462</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.048710630942374e-06</v>
+        <v>1.511888797442471e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>843081.0183295481</v>
+        <v>1003253.111107793</v>
       </c>
     </row>
     <row r="9">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>673.8299849376003</v>
+        <v>803.2451610152812</v>
       </c>
       <c r="AB9" t="n">
-        <v>921.9639126725148</v>
+        <v>1099.035465976617</v>
       </c>
       <c r="AC9" t="n">
-        <v>833.9729708315276</v>
+        <v>994.1450636097724</v>
       </c>
       <c r="AD9" t="n">
-        <v>673829.9849376003</v>
+        <v>803245.1610152811</v>
       </c>
       <c r="AE9" t="n">
-        <v>921963.9126725148</v>
+        <v>1099035.465976617</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.056646743798667e-06</v>
+        <v>1.523330008934613e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.76302083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>833972.9708315276</v>
+        <v>994145.0636097724</v>
       </c>
     </row>
     <row r="10">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>666.3724140053415</v>
+        <v>795.7875900830221</v>
       </c>
       <c r="AB10" t="n">
-        <v>911.7601351181886</v>
+        <v>1088.831688422291</v>
       </c>
       <c r="AC10" t="n">
-        <v>824.7430274858946</v>
+        <v>984.9151202641395</v>
       </c>
       <c r="AD10" t="n">
-        <v>666372.4140053415</v>
+        <v>795787.5900830221</v>
       </c>
       <c r="AE10" t="n">
-        <v>911760.1351181886</v>
+        <v>1088831.688422291</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.066123396209417e-06</v>
+        <v>1.536992161481112e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.50260416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>824743.0274858946</v>
+        <v>984915.1202641395</v>
       </c>
     </row>
     <row r="11">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>661.0756626549675</v>
+        <v>781.8575604457158</v>
       </c>
       <c r="AB11" t="n">
-        <v>904.5128862444295</v>
+        <v>1069.772007322994</v>
       </c>
       <c r="AC11" t="n">
-        <v>818.1874458730694</v>
+        <v>967.6744683785286</v>
       </c>
       <c r="AD11" t="n">
-        <v>661075.6626549675</v>
+        <v>781857.5604457158</v>
       </c>
       <c r="AE11" t="n">
-        <v>904512.8862444295</v>
+        <v>1069772.007322994</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.072168846885241e-06</v>
+        <v>1.545707672588361e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28.34635416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>818187.4458730693</v>
+        <v>967674.4683785286</v>
       </c>
     </row>
     <row r="12">
@@ -7687,28 +7687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>656.2311016245785</v>
+        <v>777.0129994153267</v>
       </c>
       <c r="AB12" t="n">
-        <v>897.8843441157027</v>
+        <v>1063.143465194267</v>
       </c>
       <c r="AC12" t="n">
-        <v>812.1915225018909</v>
+        <v>961.6785450073502</v>
       </c>
       <c r="AD12" t="n">
-        <v>656231.1016245785</v>
+        <v>777012.9994153267</v>
       </c>
       <c r="AE12" t="n">
-        <v>897884.3441157027</v>
+        <v>1063143.465194267</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.077397344767034e-06</v>
+        <v>1.553245411924361e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>29</v>
+        <v>28.203125</v>
       </c>
       <c r="AH12" t="n">
-        <v>812191.5225018909</v>
+        <v>961678.5450073502</v>
       </c>
     </row>
     <row r="13">
@@ -7793,28 +7793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>652.4655221842513</v>
+        <v>773.2474199749997</v>
       </c>
       <c r="AB13" t="n">
-        <v>892.7321121998066</v>
+        <v>1057.991233278371</v>
       </c>
       <c r="AC13" t="n">
-        <v>807.5310123688453</v>
+        <v>957.0180348743046</v>
       </c>
       <c r="AD13" t="n">
-        <v>652465.5221842513</v>
+        <v>773247.4199749997</v>
       </c>
       <c r="AE13" t="n">
-        <v>892732.1121998066</v>
+        <v>1057991.233278371</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.080058276724733e-06</v>
+        <v>1.557081582836432e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>29</v>
+        <v>28.13802083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>807531.0123688453</v>
+        <v>957018.0348743045</v>
       </c>
     </row>
     <row r="14">
@@ -7899,28 +7899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>637.6459672630101</v>
+        <v>766.9758024861193</v>
       </c>
       <c r="AB14" t="n">
-        <v>872.4553433639437</v>
+        <v>1049.410129545848</v>
       </c>
       <c r="AC14" t="n">
-        <v>789.1894298920531</v>
+        <v>949.2558996383592</v>
       </c>
       <c r="AD14" t="n">
-        <v>637645.9672630101</v>
+        <v>766975.8024861193</v>
       </c>
       <c r="AE14" t="n">
-        <v>872455.3433639437</v>
+        <v>1049410.129545848</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.086920680194587e-06</v>
+        <v>1.566974865714931e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.95572916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>789189.4298920531</v>
+        <v>949255.8996383592</v>
       </c>
     </row>
     <row r="15">
@@ -8005,28 +8005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>634.4061150884031</v>
+        <v>763.7359503115123</v>
       </c>
       <c r="AB15" t="n">
-        <v>868.0224346864561</v>
+        <v>1044.977220868361</v>
       </c>
       <c r="AC15" t="n">
-        <v>785.1795917971185</v>
+        <v>945.2460615434246</v>
       </c>
       <c r="AD15" t="n">
-        <v>634406.1150884031</v>
+        <v>763735.9503115123</v>
       </c>
       <c r="AE15" t="n">
-        <v>868022.4346864561</v>
+        <v>1044977.220868361</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.089558270643884e-06</v>
+        <v>1.570777386004966e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.890625</v>
       </c>
       <c r="AH15" t="n">
-        <v>785179.5917971185</v>
+        <v>945246.0615434246</v>
       </c>
     </row>
     <row r="16">
@@ -8111,28 +8111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>629.897478968978</v>
+        <v>759.2273141920872</v>
       </c>
       <c r="AB16" t="n">
-        <v>861.8535198408712</v>
+        <v>1038.808306022776</v>
       </c>
       <c r="AC16" t="n">
-        <v>779.5994295262701</v>
+        <v>939.6658992725761</v>
       </c>
       <c r="AD16" t="n">
-        <v>629897.478968978</v>
+        <v>759227.3141920872</v>
       </c>
       <c r="AE16" t="n">
-        <v>861853.5198408712</v>
+        <v>1038808.306022776</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.092756057294802e-06</v>
+        <v>1.575387521223859e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH16" t="n">
-        <v>779599.4295262701</v>
+        <v>939665.8992725761</v>
       </c>
     </row>
     <row r="17">
@@ -8217,28 +8217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>628.7503900861561</v>
+        <v>758.0802253092652</v>
       </c>
       <c r="AB17" t="n">
-        <v>860.2840222254042</v>
+        <v>1037.238808407309</v>
       </c>
       <c r="AC17" t="n">
-        <v>778.1797225604195</v>
+        <v>938.2461923067256</v>
       </c>
       <c r="AD17" t="n">
-        <v>628750.3900861561</v>
+        <v>758080.2253092652</v>
       </c>
       <c r="AE17" t="n">
-        <v>860284.0222254042</v>
+        <v>1037238.808407309</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.092032470534375e-06</v>
+        <v>1.574344351940752e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.82552083333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>778179.7225604195</v>
+        <v>938246.1923067255</v>
       </c>
     </row>
     <row r="18">
@@ -8323,28 +8323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>624.9072958271854</v>
+        <v>754.2371310502946</v>
       </c>
       <c r="AB18" t="n">
-        <v>855.0257311149279</v>
+        <v>1031.980517296833</v>
       </c>
       <c r="AC18" t="n">
-        <v>773.4232753734691</v>
+        <v>933.4897451197752</v>
       </c>
       <c r="AD18" t="n">
-        <v>624907.2958271854</v>
+        <v>754237.1310502946</v>
       </c>
       <c r="AE18" t="n">
-        <v>855025.7311149279</v>
+        <v>1031980.517296833</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.095813794895315e-06</v>
+        <v>1.579795752710537e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.734375</v>
       </c>
       <c r="AH18" t="n">
-        <v>773423.2753734691</v>
+        <v>933489.7451197752</v>
       </c>
     </row>
     <row r="19">
@@ -8429,28 +8429,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>620.4031319056339</v>
+        <v>741.2702810424029</v>
       </c>
       <c r="AB19" t="n">
-        <v>848.8629353277732</v>
+        <v>1014.238701058987</v>
       </c>
       <c r="AC19" t="n">
-        <v>767.8486481667021</v>
+        <v>917.4411829228735</v>
       </c>
       <c r="AD19" t="n">
-        <v>620403.131905634</v>
+        <v>741270.2810424028</v>
       </c>
       <c r="AE19" t="n">
-        <v>848862.9353277732</v>
+        <v>1014238.701058987</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.098544751378216e-06</v>
+        <v>1.583732875488715e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27.66927083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>767848.6481667021</v>
+        <v>917441.1829228735</v>
       </c>
     </row>
     <row r="20">
@@ -8535,28 +8535,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>617.9868582024351</v>
+        <v>738.8540073392039</v>
       </c>
       <c r="AB20" t="n">
-        <v>845.5568830485843</v>
+        <v>1010.932648779798</v>
       </c>
       <c r="AC20" t="n">
-        <v>764.8581208769654</v>
+        <v>914.4506556331369</v>
       </c>
       <c r="AD20" t="n">
-        <v>617986.8582024351</v>
+        <v>738854.007339204</v>
       </c>
       <c r="AE20" t="n">
-        <v>845556.8830485842</v>
+        <v>1010932.648779798</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.09917497210504e-06</v>
+        <v>1.584641442283679e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27.65625</v>
       </c>
       <c r="AH20" t="n">
-        <v>764858.1208769653</v>
+        <v>914450.6556331369</v>
       </c>
     </row>
     <row r="21">
@@ -8641,28 +8641,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>613.8247699429704</v>
+        <v>734.6919190797394</v>
       </c>
       <c r="AB21" t="n">
-        <v>839.8621302736096</v>
+        <v>1005.237896004823</v>
       </c>
       <c r="AC21" t="n">
-        <v>759.7068673141988</v>
+        <v>909.2994020703701</v>
       </c>
       <c r="AD21" t="n">
-        <v>613824.7699429704</v>
+        <v>734691.9190797394</v>
       </c>
       <c r="AE21" t="n">
-        <v>839862.1302736097</v>
+        <v>1005237.896004823</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.101509122945126e-06</v>
+        <v>1.58800650448725e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27.59114583333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>759706.8673141988</v>
+        <v>909299.40207037</v>
       </c>
     </row>
     <row r="22">
@@ -8747,28 +8747,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>612.4892731426</v>
+        <v>733.3564222793691</v>
       </c>
       <c r="AB22" t="n">
-        <v>838.0348446333825</v>
+        <v>1003.410610364596</v>
       </c>
       <c r="AC22" t="n">
-        <v>758.0539752508632</v>
+        <v>907.6465100070347</v>
       </c>
       <c r="AD22" t="n">
-        <v>612489.2731426001</v>
+        <v>733356.4222793691</v>
       </c>
       <c r="AE22" t="n">
-        <v>838034.8446333825</v>
+        <v>1003410.610364596</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.101952611604742e-06</v>
+        <v>1.588645866305929e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH22" t="n">
-        <v>758053.9752508632</v>
+        <v>907646.5100070348</v>
       </c>
     </row>
     <row r="23">
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>607.3525196212995</v>
+        <v>728.2196687580683</v>
       </c>
       <c r="AB23" t="n">
-        <v>831.0065118479673</v>
+        <v>996.3822775791809</v>
       </c>
       <c r="AC23" t="n">
-        <v>751.6964166821612</v>
+        <v>901.2889514383327</v>
       </c>
       <c r="AD23" t="n">
-        <v>607352.5196212995</v>
+        <v>728219.6687580684</v>
       </c>
       <c r="AE23" t="n">
-        <v>831006.5118479673</v>
+        <v>996382.2775791809</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.104450153003635e-06</v>
+        <v>1.59224648286375e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>28</v>
+        <v>27.51302083333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>751696.4166821612</v>
+        <v>901288.9514383327</v>
       </c>
     </row>
     <row r="24">
@@ -8959,28 +8959,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>605.1769451622904</v>
+        <v>725.8735020984672</v>
       </c>
       <c r="AB24" t="n">
-        <v>828.0297948935801</v>
+        <v>993.1721488499464</v>
       </c>
       <c r="AC24" t="n">
-        <v>749.0037934160521</v>
+        <v>898.3851928895724</v>
       </c>
       <c r="AD24" t="n">
-        <v>605176.9451622904</v>
+        <v>725873.5020984672</v>
       </c>
       <c r="AE24" t="n">
-        <v>828029.79489358</v>
+        <v>993172.1488499464</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.105057032222057e-06</v>
+        <v>1.593121399036678e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>749003.7934160521</v>
+        <v>898385.1928895724</v>
       </c>
     </row>
     <row r="25">
@@ -9065,28 +9065,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>602.269935116821</v>
+        <v>722.9664920529978</v>
       </c>
       <c r="AB25" t="n">
-        <v>824.0522955011367</v>
+        <v>989.1946494575034</v>
       </c>
       <c r="AC25" t="n">
-        <v>745.4059009831683</v>
+        <v>894.7873004566886</v>
       </c>
       <c r="AD25" t="n">
-        <v>602269.935116821</v>
+        <v>722966.4920529977</v>
       </c>
       <c r="AE25" t="n">
-        <v>824052.2955011367</v>
+        <v>989194.6494575033</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.105267105797665e-06</v>
+        <v>1.593424254635e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>745405.9009831683</v>
+        <v>894787.3004566886</v>
       </c>
     </row>
     <row r="26">
@@ -9171,28 +9171,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>600.3877630019473</v>
+        <v>721.2549121387163</v>
       </c>
       <c r="AB26" t="n">
-        <v>821.4770245779932</v>
+        <v>986.8527903092066</v>
       </c>
       <c r="AC26" t="n">
-        <v>743.076410302514</v>
+        <v>892.6689450586855</v>
       </c>
       <c r="AD26" t="n">
-        <v>600387.7630019473</v>
+        <v>721254.9121387163</v>
       </c>
       <c r="AE26" t="n">
-        <v>821477.0245779932</v>
+        <v>986852.7903092066</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.104846958646449e-06</v>
+        <v>1.592818543438357e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>28</v>
+        <v>27.51302083333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>743076.410302514</v>
+        <v>892668.9450586855</v>
       </c>
     </row>
     <row r="27">
@@ -9277,28 +9277,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>598.2736674491031</v>
+        <v>718.9702243852797</v>
       </c>
       <c r="AB27" t="n">
-        <v>818.5844257752783</v>
+        <v>983.726779731645</v>
       </c>
       <c r="AC27" t="n">
-        <v>740.4598770697424</v>
+        <v>889.8412765432629</v>
       </c>
       <c r="AD27" t="n">
-        <v>598273.6674491031</v>
+        <v>718970.2243852797</v>
       </c>
       <c r="AE27" t="n">
-        <v>818584.4257752784</v>
+        <v>983726.779731645</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.107904696246962e-06</v>
+        <v>1.597226774925035e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH27" t="n">
-        <v>740459.8770697424</v>
+        <v>889841.2765432629</v>
       </c>
     </row>
     <row r="28">
@@ -9383,28 +9383,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>600.1683828279283</v>
+        <v>720.864939764105</v>
       </c>
       <c r="AB28" t="n">
-        <v>821.1768589455303</v>
+        <v>986.3192129018965</v>
       </c>
       <c r="AC28" t="n">
-        <v>742.8048920567282</v>
+        <v>892.1862915302486</v>
       </c>
       <c r="AD28" t="n">
-        <v>600168.3828279283</v>
+        <v>720864.939764105</v>
       </c>
       <c r="AE28" t="n">
-        <v>821176.8589455303</v>
+        <v>986319.2129018966</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.107787988704958e-06</v>
+        <v>1.597058521814857e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH28" t="n">
-        <v>742804.8920567282</v>
+        <v>892186.2915302486</v>
       </c>
     </row>
   </sheetData>
@@ -9680,28 +9680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>988.8363314226924</v>
+        <v>1157.099551176732</v>
       </c>
       <c r="AB2" t="n">
-        <v>1352.969493032617</v>
+        <v>1583.194653549443</v>
       </c>
       <c r="AC2" t="n">
-        <v>1223.843983522193</v>
+        <v>1432.096777842335</v>
       </c>
       <c r="AD2" t="n">
-        <v>988836.3314226924</v>
+        <v>1157099.551176732</v>
       </c>
       <c r="AE2" t="n">
-        <v>1352969.493032617</v>
+        <v>1583194.653549443</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.853395910290621e-07</v>
+        <v>1.14970761761349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.0390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1223843.983522193</v>
+        <v>1432096.777842335</v>
       </c>
     </row>
     <row r="3">
@@ -9786,28 +9786,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>747.5614052894714</v>
+        <v>890.5722648699511</v>
       </c>
       <c r="AB3" t="n">
-        <v>1022.846494798639</v>
+        <v>1218.520262070496</v>
       </c>
       <c r="AC3" t="n">
-        <v>925.2274609091284</v>
+        <v>1102.226398462416</v>
       </c>
       <c r="AD3" t="n">
-        <v>747561.4052894714</v>
+        <v>890572.2648699512</v>
       </c>
       <c r="AE3" t="n">
-        <v>1022846.494798639</v>
+        <v>1218520.262070496</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.624539035428417e-07</v>
+        <v>1.408996308278689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.66927083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>925227.4609091283</v>
+        <v>1102226.398462416</v>
       </c>
     </row>
     <row r="4">
@@ -9892,28 +9892,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>681.2672330727734</v>
+        <v>815.6900768976579</v>
       </c>
       <c r="AB4" t="n">
-        <v>932.1398836792895</v>
+        <v>1116.063148917825</v>
       </c>
       <c r="AC4" t="n">
-        <v>843.1777614474809</v>
+        <v>1009.547648389575</v>
       </c>
       <c r="AD4" t="n">
-        <v>681267.2330727733</v>
+        <v>815690.0768976579</v>
       </c>
       <c r="AE4" t="n">
-        <v>932139.8836792895</v>
+        <v>1116063.148917825</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.032599381096015e-06</v>
+        <v>1.511686648617122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.44270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>843177.7614474809</v>
+        <v>1009547.648389575</v>
       </c>
     </row>
     <row r="5">
@@ -9998,28 +9998,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>650.6050321403476</v>
+        <v>776.6957932648007</v>
       </c>
       <c r="AB5" t="n">
-        <v>890.1865076427097</v>
+        <v>1062.709449744969</v>
       </c>
       <c r="AC5" t="n">
-        <v>805.2283567378992</v>
+        <v>961.2859513833891</v>
       </c>
       <c r="AD5" t="n">
-        <v>650605.0321403476</v>
+        <v>776695.7932648007</v>
       </c>
       <c r="AE5" t="n">
-        <v>890186.5076427097</v>
+        <v>1062709.449744969</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.066138819416621e-06</v>
+        <v>1.560787124599939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.4921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>805228.3567378991</v>
+        <v>961285.9513833892</v>
       </c>
     </row>
     <row r="6">
@@ -10104,28 +10104,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>628.0688201759027</v>
+        <v>754.2448326463765</v>
       </c>
       <c r="AB6" t="n">
-        <v>859.3514682054532</v>
+        <v>1031.991054960362</v>
       </c>
       <c r="AC6" t="n">
-        <v>777.3361701872847</v>
+        <v>933.4992770834872</v>
       </c>
       <c r="AD6" t="n">
-        <v>628068.8201759027</v>
+        <v>754244.8326463765</v>
       </c>
       <c r="AE6" t="n">
-        <v>859351.4682054532</v>
+        <v>1031991.054960362</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.087725758119732e-06</v>
+        <v>1.592389590783264e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>777336.1701872847</v>
+        <v>933499.2770834871</v>
       </c>
     </row>
     <row r="7">
@@ -10210,28 +10210,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>616.9190913097566</v>
+        <v>742.9245115796381</v>
       </c>
       <c r="AB7" t="n">
-        <v>844.0959172794708</v>
+        <v>1016.502092259533</v>
       </c>
       <c r="AC7" t="n">
-        <v>763.5365876303779</v>
+        <v>919.4885592439289</v>
       </c>
       <c r="AD7" t="n">
-        <v>616919.0913097566</v>
+        <v>742924.5115796381</v>
       </c>
       <c r="AE7" t="n">
-        <v>844095.9172794707</v>
+        <v>1016502.092259533</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.103638277812517e-06</v>
+        <v>1.615684921001173e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.48958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>763536.5876303778</v>
+        <v>919488.5592439289</v>
       </c>
     </row>
     <row r="8">
@@ -10316,28 +10316,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>608.4946701618943</v>
+        <v>726.2533485859161</v>
       </c>
       <c r="AB8" t="n">
-        <v>832.5692526057347</v>
+        <v>993.6918715717185</v>
       </c>
       <c r="AC8" t="n">
-        <v>753.1100116553279</v>
+        <v>898.8553140042141</v>
       </c>
       <c r="AD8" t="n">
-        <v>608494.6701618943</v>
+        <v>726253.3485859161</v>
       </c>
       <c r="AE8" t="n">
-        <v>832569.2526057347</v>
+        <v>993691.8715717185</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.11448004009182e-06</v>
+        <v>1.631556853122329e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.21614583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>753110.0116553279</v>
+        <v>898855.314004214</v>
       </c>
     </row>
     <row r="9">
@@ -10422,28 +10422,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>602.041278736076</v>
+        <v>719.7999571600977</v>
       </c>
       <c r="AB9" t="n">
-        <v>823.739437753394</v>
+        <v>984.8620567193776</v>
       </c>
       <c r="AC9" t="n">
-        <v>745.1229019397714</v>
+        <v>890.8682042886575</v>
       </c>
       <c r="AD9" t="n">
-        <v>602041.2787360761</v>
+        <v>719799.9571600978</v>
       </c>
       <c r="AE9" t="n">
-        <v>823739.437753394</v>
+        <v>984862.0567193776</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.122617398417266e-06</v>
+        <v>1.643469639591882e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.0078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>745122.9019397714</v>
+        <v>890868.2042886575</v>
       </c>
     </row>
     <row r="10">
@@ -10528,28 +10528,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>586.8432769202732</v>
+        <v>712.9339485361753</v>
       </c>
       <c r="AB10" t="n">
-        <v>802.9448611804931</v>
+        <v>975.4676808132045</v>
       </c>
       <c r="AC10" t="n">
-        <v>726.3129305696166</v>
+        <v>882.3704144338802</v>
       </c>
       <c r="AD10" t="n">
-        <v>586843.2769202732</v>
+        <v>712933.9485361753</v>
       </c>
       <c r="AE10" t="n">
-        <v>802944.8611804931</v>
+        <v>975467.6808132045</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.128629867921824e-06</v>
+        <v>1.652271668763748e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.8515625</v>
       </c>
       <c r="AH10" t="n">
-        <v>726312.9305696166</v>
+        <v>882370.4144338802</v>
       </c>
     </row>
     <row r="11">
@@ -10634,28 +10634,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>581.9388846744207</v>
+        <v>708.0295562903229</v>
       </c>
       <c r="AB11" t="n">
-        <v>796.2344553432022</v>
+        <v>968.7572749759137</v>
       </c>
       <c r="AC11" t="n">
-        <v>720.2429564473231</v>
+        <v>876.3004403115867</v>
       </c>
       <c r="AD11" t="n">
-        <v>581938.8846744207</v>
+        <v>708029.5562903229</v>
       </c>
       <c r="AE11" t="n">
-        <v>796234.4553432022</v>
+        <v>968757.2749759137</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.133893797046296e-06</v>
+        <v>1.659977862978473e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.734375</v>
       </c>
       <c r="AH11" t="n">
-        <v>720242.9564473231</v>
+        <v>876300.4403115867</v>
       </c>
     </row>
     <row r="12">
@@ -10740,28 +10740,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>575.8820538672302</v>
+        <v>693.7259836372726</v>
       </c>
       <c r="AB12" t="n">
-        <v>787.9472322242877</v>
+        <v>949.1864958429206</v>
       </c>
       <c r="AC12" t="n">
-        <v>712.746654271687</v>
+        <v>858.5974688712854</v>
       </c>
       <c r="AD12" t="n">
-        <v>575882.0538672302</v>
+        <v>693725.9836372726</v>
       </c>
       <c r="AE12" t="n">
-        <v>787947.2322242877</v>
+        <v>949186.4958429206</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.139230165562389e-06</v>
+        <v>1.667790105737438e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.60416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>712746.654271687</v>
+        <v>858597.4688712854</v>
       </c>
     </row>
     <row r="13">
@@ -10846,28 +10846,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>572.3182188965218</v>
+        <v>690.1621486665641</v>
       </c>
       <c r="AB13" t="n">
-        <v>783.071035992062</v>
+        <v>944.3102996106949</v>
       </c>
       <c r="AC13" t="n">
-        <v>708.3358353640805</v>
+        <v>854.1866499636789</v>
       </c>
       <c r="AD13" t="n">
-        <v>572318.2188965218</v>
+        <v>690162.1486665641</v>
       </c>
       <c r="AE13" t="n">
-        <v>783071.035992062</v>
+        <v>944310.2996106949</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.142031155371741e-06</v>
+        <v>1.671890649448026e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.52604166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>708335.8353640805</v>
+        <v>854186.6499636789</v>
       </c>
     </row>
     <row r="14">
@@ -10952,28 +10952,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>566.9422452325974</v>
+        <v>684.6155828020477</v>
       </c>
       <c r="AB14" t="n">
-        <v>775.7153916538614</v>
+        <v>936.7212434976473</v>
       </c>
       <c r="AC14" t="n">
-        <v>701.682203397806</v>
+        <v>847.3218827147534</v>
       </c>
       <c r="AD14" t="n">
-        <v>566942.2452325975</v>
+        <v>684615.5828020477</v>
       </c>
       <c r="AE14" t="n">
-        <v>775715.3916538614</v>
+        <v>936721.2434976472</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.14480799871722e-06</v>
+        <v>1.675955843643868e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.4609375</v>
       </c>
       <c r="AH14" t="n">
-        <v>701682.203397806</v>
+        <v>847321.8827147534</v>
       </c>
     </row>
     <row r="15">
@@ -11058,28 +11058,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>562.5917173863489</v>
+        <v>680.2650549557991</v>
       </c>
       <c r="AB15" t="n">
-        <v>769.7628075228814</v>
+        <v>930.7686593666673</v>
       </c>
       <c r="AC15" t="n">
-        <v>696.2977255417826</v>
+        <v>841.9374048587298</v>
       </c>
       <c r="AD15" t="n">
-        <v>562591.717386349</v>
+        <v>680265.0549557991</v>
       </c>
       <c r="AE15" t="n">
-        <v>769762.8075228814</v>
+        <v>930768.6593666673</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.147898746093057e-06</v>
+        <v>1.680480581531413e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.39583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>696297.7255417826</v>
+        <v>841937.4048587298</v>
       </c>
     </row>
     <row r="16">
@@ -11164,28 +11164,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>557.3894172106175</v>
+        <v>675.0627547800676</v>
       </c>
       <c r="AB16" t="n">
-        <v>762.6447909131597</v>
+        <v>923.6506427569457</v>
       </c>
       <c r="AC16" t="n">
-        <v>689.8590424470937</v>
+        <v>835.4987217640409</v>
       </c>
       <c r="AD16" t="n">
-        <v>557389.4172106175</v>
+        <v>675062.7547800676</v>
       </c>
       <c r="AE16" t="n">
-        <v>762644.7909131597</v>
+        <v>923650.6427569457</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.150603150046914e-06</v>
+        <v>1.684439727183016e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.33072916666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>689859.0424470936</v>
+        <v>835498.7217640409</v>
       </c>
     </row>
     <row r="17">
@@ -11270,28 +11270,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>553.4746302261295</v>
+        <v>671.1479677955797</v>
       </c>
       <c r="AB17" t="n">
-        <v>757.2884066527707</v>
+        <v>918.2942584965566</v>
       </c>
       <c r="AC17" t="n">
-        <v>685.0138639827836</v>
+        <v>830.6535432997312</v>
       </c>
       <c r="AD17" t="n">
-        <v>553474.6302261295</v>
+        <v>671147.9677955797</v>
       </c>
       <c r="AE17" t="n">
-        <v>757288.4066527707</v>
+        <v>918294.2584965567</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.150844614685651e-06</v>
+        <v>1.68479322233048e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.31770833333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>685013.8639827836</v>
+        <v>830653.5432997311</v>
       </c>
     </row>
     <row r="18">
@@ -11376,28 +11376,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>551.2922762737334</v>
+        <v>668.9656138431835</v>
       </c>
       <c r="AB18" t="n">
-        <v>754.302413696441</v>
+        <v>915.3082655402268</v>
       </c>
       <c r="AC18" t="n">
-        <v>682.3128500033387</v>
+        <v>827.9525293202859</v>
       </c>
       <c r="AD18" t="n">
-        <v>551292.2762737334</v>
+        <v>668965.6138431835</v>
       </c>
       <c r="AE18" t="n">
-        <v>754302.413696441</v>
+        <v>915308.2655402268</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.15304194289816e-06</v>
+        <v>1.688010028172407e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.265625</v>
       </c>
       <c r="AH18" t="n">
-        <v>682312.8500033387</v>
+        <v>827952.5293202859</v>
       </c>
     </row>
     <row r="19">
@@ -11482,28 +11482,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>551.1670142738279</v>
+        <v>668.8403518432782</v>
       </c>
       <c r="AB19" t="n">
-        <v>754.131024702001</v>
+        <v>915.1368765457869</v>
       </c>
       <c r="AC19" t="n">
-        <v>682.1578181339819</v>
+        <v>827.7974974509292</v>
       </c>
       <c r="AD19" t="n">
-        <v>551167.0142738279</v>
+        <v>668840.3518432782</v>
       </c>
       <c r="AE19" t="n">
-        <v>754131.024702001</v>
+        <v>915136.8765457869</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.152872917651044e-06</v>
+        <v>1.687762581569181e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27.265625</v>
       </c>
       <c r="AH19" t="n">
-        <v>682157.8181339819</v>
+        <v>827797.4974509293</v>
       </c>
     </row>
   </sheetData>
@@ -11779,28 +11779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.1015833495916</v>
+        <v>680.3782030974292</v>
       </c>
       <c r="AB2" t="n">
-        <v>760.8827198092839</v>
+        <v>930.9234736457892</v>
       </c>
       <c r="AC2" t="n">
-        <v>688.2651409362896</v>
+        <v>842.0774438803356</v>
       </c>
       <c r="AD2" t="n">
-        <v>556101.5833495916</v>
+        <v>680378.2030974291</v>
       </c>
       <c r="AE2" t="n">
-        <v>760882.719809284</v>
+        <v>930923.4736457892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.11046738171923e-06</v>
+        <v>1.718030107745672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>688265.1409362897</v>
+        <v>842077.4438803357</v>
       </c>
     </row>
     <row r="3">
@@ -11885,28 +11885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>480.242012828495</v>
+        <v>596.6660029875212</v>
       </c>
       <c r="AB3" t="n">
-        <v>657.0883087342659</v>
+        <v>816.3847483337918</v>
       </c>
       <c r="AC3" t="n">
-        <v>594.3767227779003</v>
+        <v>738.4701337560045</v>
       </c>
       <c r="AD3" t="n">
-        <v>480242.0128284951</v>
+        <v>596666.0029875212</v>
       </c>
       <c r="AE3" t="n">
-        <v>657088.3087342659</v>
+        <v>816384.7483337917</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.226434082619885e-06</v>
+        <v>1.897444908146928e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.60677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>594376.7227779003</v>
+        <v>738470.1337560045</v>
       </c>
     </row>
     <row r="4">
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>452.5330177594282</v>
+        <v>561.2750600387861</v>
       </c>
       <c r="AB4" t="n">
-        <v>619.1756392461813</v>
+        <v>767.9612988531234</v>
       </c>
       <c r="AC4" t="n">
-        <v>560.0823852549927</v>
+        <v>694.668150331033</v>
       </c>
       <c r="AD4" t="n">
-        <v>452533.0177594282</v>
+        <v>561275.0600387861</v>
       </c>
       <c r="AE4" t="n">
-        <v>619175.6392461812</v>
+        <v>767961.2988531233</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267227201849343e-06</v>
+        <v>1.960556898808522e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.68229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>560082.3852549926</v>
+        <v>694668.1503310329</v>
       </c>
     </row>
     <row r="5">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.6726165636441</v>
+        <v>547.2440666424097</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.2112268523643</v>
+        <v>748.7634746844594</v>
       </c>
       <c r="AC5" t="n">
-        <v>542.9279097633217</v>
+        <v>677.3025395567109</v>
       </c>
       <c r="AD5" t="n">
-        <v>438672.616563644</v>
+        <v>547244.0666424098</v>
       </c>
       <c r="AE5" t="n">
-        <v>600211.2268523644</v>
+        <v>748763.4746844594</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.286680723701173e-06</v>
+        <v>1.990653898318212e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>542927.9097633217</v>
+        <v>677302.539556711</v>
       </c>
     </row>
     <row r="6">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>429.7107673383216</v>
+        <v>530.6856103919907</v>
       </c>
       <c r="AB6" t="n">
-        <v>587.9492293733942</v>
+        <v>726.107464335103</v>
       </c>
       <c r="AC6" t="n">
-        <v>531.8361801139229</v>
+        <v>656.8087870371868</v>
       </c>
       <c r="AD6" t="n">
-        <v>429710.7673383216</v>
+        <v>530685.6103919907</v>
       </c>
       <c r="AE6" t="n">
-        <v>587949.2293733943</v>
+        <v>726107.4643351031</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.298562999513716e-06</v>
+        <v>2.009037245664159e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>531836.1801139229</v>
+        <v>656808.7870371868</v>
       </c>
     </row>
     <row r="7">
@@ -12309,28 +12309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>421.8502078590374</v>
+        <v>530.5069092838238</v>
       </c>
       <c r="AB7" t="n">
-        <v>577.1940651104283</v>
+        <v>725.8629575951726</v>
       </c>
       <c r="AC7" t="n">
-        <v>522.1074736332465</v>
+        <v>656.5876156773479</v>
       </c>
       <c r="AD7" t="n">
-        <v>421850.2078590374</v>
+        <v>530506.9092838238</v>
       </c>
       <c r="AE7" t="n">
-        <v>577194.0651104283</v>
+        <v>725862.9575951726</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.300260467486937e-06</v>
+        <v>2.011663438142151e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>26.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>522107.4736332466</v>
+        <v>656587.6156773479</v>
       </c>
     </row>
   </sheetData>
@@ -12606,28 +12606,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.5777157271972</v>
+        <v>828.8573780808348</v>
       </c>
       <c r="AB2" t="n">
-        <v>947.6153850303507</v>
+        <v>1134.079231296978</v>
       </c>
       <c r="AC2" t="n">
-        <v>857.1763026695992</v>
+        <v>1025.844301152192</v>
       </c>
       <c r="AD2" t="n">
-        <v>692577.7157271972</v>
+        <v>828857.3780808348</v>
       </c>
       <c r="AE2" t="n">
-        <v>947615.3850303506</v>
+        <v>1134079.231296978</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.809212313757701e-07</v>
+        <v>1.482460340492379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.21875</v>
       </c>
       <c r="AH2" t="n">
-        <v>857176.3026695992</v>
+        <v>1025844.301152192</v>
       </c>
     </row>
     <row r="3">
@@ -12712,28 +12712,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>568.2666537373714</v>
+        <v>696.4394202161413</v>
       </c>
       <c r="AB3" t="n">
-        <v>777.5275057988725</v>
+        <v>952.8991394785022</v>
       </c>
       <c r="AC3" t="n">
-        <v>703.3213719121355</v>
+        <v>861.9557830090152</v>
       </c>
       <c r="AD3" t="n">
-        <v>568266.6537373713</v>
+        <v>696439.4202161414</v>
       </c>
       <c r="AE3" t="n">
-        <v>777527.5057988726</v>
+        <v>952899.1394785022</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123542100465302e-06</v>
+        <v>1.698002399720978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>703321.3719121355</v>
+        <v>861955.7830090153</v>
       </c>
     </row>
     <row r="4">
@@ -12818,28 +12818,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>533.7317690899637</v>
+        <v>653.9684109115608</v>
       </c>
       <c r="AB4" t="n">
-        <v>730.2753530527067</v>
+        <v>894.7884308592826</v>
       </c>
       <c r="AC4" t="n">
-        <v>660.5788983052511</v>
+        <v>809.391078861522</v>
       </c>
       <c r="AD4" t="n">
-        <v>533731.7690899636</v>
+        <v>653968.4109115608</v>
       </c>
       <c r="AE4" t="n">
-        <v>730275.3530527067</v>
+        <v>894788.4308592826</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174166967064225e-06</v>
+        <v>1.774511455264981e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.58072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>660578.898305251</v>
+        <v>809391.078861522</v>
       </c>
     </row>
     <row r="5">
@@ -12924,28 +12924,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>510.2266546995593</v>
+        <v>630.3779556665849</v>
       </c>
       <c r="AB5" t="n">
-        <v>698.1146185712947</v>
+        <v>862.5109292556729</v>
       </c>
       <c r="AC5" t="n">
-        <v>631.4875391848707</v>
+        <v>780.194096709203</v>
       </c>
       <c r="AD5" t="n">
-        <v>510226.6546995593</v>
+        <v>630377.9556665849</v>
       </c>
       <c r="AE5" t="n">
-        <v>698114.6185712947</v>
+        <v>862510.9292556728</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.200665115161828e-06</v>
+        <v>1.814557946659704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.95572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>631487.5391848707</v>
+        <v>780194.096709203</v>
       </c>
     </row>
     <row r="6">
@@ -13030,28 +13030,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>499.7593411208265</v>
+        <v>612.0598582852506</v>
       </c>
       <c r="AB6" t="n">
-        <v>683.7927783475885</v>
+        <v>837.4473002811104</v>
       </c>
       <c r="AC6" t="n">
-        <v>618.5325552912857</v>
+        <v>757.5225053069485</v>
       </c>
       <c r="AD6" t="n">
-        <v>499759.3411208265</v>
+        <v>612059.8582852506</v>
       </c>
       <c r="AE6" t="n">
-        <v>683792.7783475885</v>
+        <v>837447.3002811105</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.216388724441535e-06</v>
+        <v>1.838320942526222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.59114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>618532.5552912857</v>
+        <v>757522.5053069484</v>
       </c>
     </row>
     <row r="7">
@@ -13136,28 +13136,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>490.3722642006407</v>
+        <v>602.5021891644727</v>
       </c>
       <c r="AB7" t="n">
-        <v>670.9489655767843</v>
+        <v>824.3700757354593</v>
       </c>
       <c r="AC7" t="n">
-        <v>606.9145379849227</v>
+        <v>745.6933527179343</v>
       </c>
       <c r="AD7" t="n">
-        <v>490372.2642006407</v>
+        <v>602502.1891644727</v>
       </c>
       <c r="AE7" t="n">
-        <v>670948.9655767843</v>
+        <v>824370.0757354593</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226544629451706e-06</v>
+        <v>1.853669500512137e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.36979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>606914.5379849228</v>
+        <v>745693.3527179343</v>
       </c>
     </row>
     <row r="8">
@@ -13242,28 +13242,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>481.0746528864857</v>
+        <v>593.2045778503177</v>
       </c>
       <c r="AB8" t="n">
-        <v>658.2275635950954</v>
+        <v>811.6486737537704</v>
       </c>
       <c r="AC8" t="n">
-        <v>595.4072487537666</v>
+        <v>734.1860634867779</v>
       </c>
       <c r="AD8" t="n">
-        <v>481074.6528864857</v>
+        <v>593204.5778503177</v>
       </c>
       <c r="AE8" t="n">
-        <v>658227.5635950954</v>
+        <v>811648.6737537704</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.236803640096497e-06</v>
+        <v>1.869173881421767e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>595407.2487537665</v>
+        <v>734186.0634867779</v>
       </c>
     </row>
     <row r="9">
@@ -13348,28 +13348,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>474.8089164760084</v>
+        <v>579.088057637239</v>
       </c>
       <c r="AB9" t="n">
-        <v>649.6545066134991</v>
+        <v>792.3338280213177</v>
       </c>
       <c r="AC9" t="n">
-        <v>587.6523922981327</v>
+        <v>716.7145995224745</v>
       </c>
       <c r="AD9" t="n">
-        <v>474808.9164760084</v>
+        <v>579088.057637239</v>
       </c>
       <c r="AE9" t="n">
-        <v>649654.506613499</v>
+        <v>792333.8280213177</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.241520722880409e-06</v>
+        <v>1.876302780181723e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH9" t="n">
-        <v>587652.3922981326</v>
+        <v>716714.5995224745</v>
       </c>
     </row>
     <row r="10">
@@ -13454,28 +13454,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>463.9467093371669</v>
+        <v>576.1618856470194</v>
       </c>
       <c r="AB10" t="n">
-        <v>634.7923555993777</v>
+        <v>788.330110410702</v>
       </c>
       <c r="AC10" t="n">
-        <v>574.208664117639</v>
+        <v>713.0929911013629</v>
       </c>
       <c r="AD10" t="n">
-        <v>463946.7093371669</v>
+        <v>576161.8856470194</v>
       </c>
       <c r="AE10" t="n">
-        <v>634792.3555993778</v>
+        <v>788330.1104107019</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.243299295077622e-06</v>
+        <v>1.878990725615804e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>26.9921875</v>
       </c>
       <c r="AH10" t="n">
-        <v>574208.6641176391</v>
+        <v>713092.991101363</v>
       </c>
     </row>
     <row r="11">
@@ -13560,28 +13560,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>473.5956747080597</v>
+        <v>577.8748158692903</v>
       </c>
       <c r="AB11" t="n">
-        <v>647.9944957021423</v>
+        <v>790.6738171099611</v>
       </c>
       <c r="AC11" t="n">
-        <v>586.1508104983159</v>
+        <v>715.2130177226577</v>
       </c>
       <c r="AD11" t="n">
-        <v>473595.6747080597</v>
+        <v>577874.8158692903</v>
       </c>
       <c r="AE11" t="n">
-        <v>647994.4957021424</v>
+        <v>790673.8171099611</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.24314463662569e-06</v>
+        <v>1.878756991230232e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.00520833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>586150.8104983158</v>
+        <v>715213.0177226576</v>
       </c>
     </row>
   </sheetData>
@@ -13857,28 +13857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.7863789481659</v>
+        <v>585.556683433281</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.9412286047553</v>
+        <v>801.1844872110917</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.2478902958369</v>
+        <v>724.7205642211546</v>
       </c>
       <c r="AD2" t="n">
-        <v>464786.3789481659</v>
+        <v>585556.683433281</v>
       </c>
       <c r="AE2" t="n">
-        <v>635941.2286047554</v>
+        <v>801184.4872110917</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.215913002999942e-06</v>
+        <v>1.921735898542731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.9609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>575247.8902958368</v>
+        <v>724720.5642211547</v>
       </c>
     </row>
     <row r="3">
@@ -13963,28 +13963,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>412.1520463880829</v>
+        <v>525.363539236057</v>
       </c>
       <c r="AB3" t="n">
-        <v>563.9246127331804</v>
+        <v>718.8255717863461</v>
       </c>
       <c r="AC3" t="n">
-        <v>510.1044391670899</v>
+        <v>650.2218680930828</v>
       </c>
       <c r="AD3" t="n">
-        <v>412152.0463880829</v>
+        <v>525363.539236057</v>
       </c>
       <c r="AE3" t="n">
-        <v>563924.6127331804</v>
+        <v>718825.5717863461</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.311168989334245e-06</v>
+        <v>2.072286840952329e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>510104.4391670899</v>
+        <v>650221.8680930828</v>
       </c>
     </row>
     <row r="4">
@@ -14069,28 +14069,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>395.2229578193742</v>
+        <v>500.875728538758</v>
       </c>
       <c r="AB4" t="n">
-        <v>540.761486894796</v>
+        <v>685.3202688643393</v>
       </c>
       <c r="AC4" t="n">
-        <v>489.1519695490695</v>
+        <v>619.9142642569644</v>
       </c>
       <c r="AD4" t="n">
-        <v>395222.9578193742</v>
+        <v>500875.728538758</v>
       </c>
       <c r="AE4" t="n">
-        <v>540761.486894796</v>
+        <v>685320.2688643392</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.342650477179748e-06</v>
+        <v>2.122042954410261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>489151.9695490695</v>
+        <v>619914.2642569644</v>
       </c>
     </row>
     <row r="5">
@@ -14175,28 +14175,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>396.0566088741417</v>
+        <v>501.7093795935257</v>
       </c>
       <c r="AB5" t="n">
-        <v>541.9021250460179</v>
+        <v>686.4609070155611</v>
       </c>
       <c r="AC5" t="n">
-        <v>490.1837467960345</v>
+        <v>620.9460415039295</v>
       </c>
       <c r="AD5" t="n">
-        <v>396056.6088741417</v>
+        <v>501709.3795935257</v>
       </c>
       <c r="AE5" t="n">
-        <v>541902.1250460179</v>
+        <v>686460.9070155611</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.344693275946611e-06</v>
+        <v>2.125271573327975e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.09635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>490183.7467960346</v>
+        <v>620946.0415039294</v>
       </c>
     </row>
   </sheetData>
@@ -14472,28 +14472,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1045.386459816764</v>
+        <v>1223.173703317419</v>
       </c>
       <c r="AB2" t="n">
-        <v>1430.343873516975</v>
+        <v>1673.600223494193</v>
       </c>
       <c r="AC2" t="n">
-        <v>1293.833861728749</v>
+        <v>1513.874167076573</v>
       </c>
       <c r="AD2" t="n">
-        <v>1045386.459816765</v>
+        <v>1223173.703317419</v>
       </c>
       <c r="AE2" t="n">
-        <v>1430343.873516975</v>
+        <v>1673600.223494193</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.567244101435901e-07</v>
+        <v>1.103218142030698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1293833.861728749</v>
+        <v>1513874.167076573</v>
       </c>
     </row>
     <row r="3">
@@ -14578,28 +14578,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>781.1851444567261</v>
+        <v>925.0756573476195</v>
       </c>
       <c r="AB3" t="n">
-        <v>1068.851978101958</v>
+        <v>1265.729325840687</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.8422454550795</v>
+        <v>1144.929895444718</v>
       </c>
       <c r="AD3" t="n">
-        <v>781185.1444567261</v>
+        <v>925075.6573476195</v>
       </c>
       <c r="AE3" t="n">
-        <v>1068851.978101958</v>
+        <v>1265729.325840687</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.410059356951123e-07</v>
+        <v>1.371879651431401e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.11197916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>966842.2454550795</v>
+        <v>1144929.895444718</v>
       </c>
     </row>
     <row r="4">
@@ -14684,28 +14684,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>704.6928961065048</v>
+        <v>840.1944776909787</v>
       </c>
       <c r="AB4" t="n">
-        <v>964.1919093093557</v>
+        <v>1149.591151141112</v>
       </c>
       <c r="AC4" t="n">
-        <v>872.1707867367139</v>
+        <v>1039.875785137518</v>
       </c>
       <c r="AD4" t="n">
-        <v>704692.8961065048</v>
+        <v>840194.4776909787</v>
       </c>
       <c r="AE4" t="n">
-        <v>964191.9093093557</v>
+        <v>1149591.151141112</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.009516260023642e-06</v>
+        <v>1.471759913918638e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>872170.786736714</v>
+        <v>1039875.785137518</v>
       </c>
     </row>
     <row r="5">
@@ -14790,28 +14790,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>669.8451281760682</v>
+        <v>805.2613689059701</v>
       </c>
       <c r="AB5" t="n">
-        <v>916.5116558519134</v>
+        <v>1101.794130561472</v>
       </c>
       <c r="AC5" t="n">
-        <v>829.0410697495939</v>
+        <v>996.6404451184592</v>
       </c>
       <c r="AD5" t="n">
-        <v>669845.1281760682</v>
+        <v>805261.3689059701</v>
       </c>
       <c r="AE5" t="n">
-        <v>916511.6558519134</v>
+        <v>1101794.130561472</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.047994989161007e-06</v>
+        <v>1.527857525542625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.7265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>829041.069749594</v>
+        <v>996640.4451184592</v>
       </c>
     </row>
     <row r="6">
@@ -14896,28 +14896,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>654.1241374502414</v>
+        <v>781.066285036254</v>
       </c>
       <c r="AB6" t="n">
-        <v>895.0015027796757</v>
+        <v>1068.689349399161</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.5838154968811</v>
+        <v>966.6951378074262</v>
       </c>
       <c r="AD6" t="n">
-        <v>654124.1374502414</v>
+        <v>781066.2850362541</v>
       </c>
       <c r="AE6" t="n">
-        <v>895001.5027796756</v>
+        <v>1068689.349399161</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.071398096807987e-06</v>
+        <v>1.561976595299006e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.07552083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>809583.8154968811</v>
+        <v>966695.1378074263</v>
       </c>
     </row>
     <row r="7">
@@ -15002,28 +15002,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>635.4310023153956</v>
+        <v>762.4584012474289</v>
       </c>
       <c r="AB7" t="n">
-        <v>869.4247306052606</v>
+        <v>1043.229221877395</v>
       </c>
       <c r="AC7" t="n">
-        <v>786.448054561567</v>
+        <v>943.6648891228245</v>
       </c>
       <c r="AD7" t="n">
-        <v>635431.0023153956</v>
+        <v>762458.401247429</v>
       </c>
       <c r="AE7" t="n">
-        <v>869424.7306052606</v>
+        <v>1043229.221877395</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.086330140950845e-06</v>
+        <v>1.583745817720255e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.68489583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>786448.054561567</v>
+        <v>943664.8891228245</v>
       </c>
     </row>
     <row r="8">
@@ -15108,28 +15108,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>626.8212770939239</v>
+        <v>753.678083825365</v>
       </c>
       <c r="AB8" t="n">
-        <v>857.6445247229734</v>
+        <v>1031.215604220261</v>
       </c>
       <c r="AC8" t="n">
-        <v>775.7921349950626</v>
+        <v>932.7978342736692</v>
       </c>
       <c r="AD8" t="n">
-        <v>626821.2770939239</v>
+        <v>753678.0838253649</v>
       </c>
       <c r="AE8" t="n">
-        <v>857644.5247229735</v>
+        <v>1031215.604220261</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.097648821847594e-06</v>
+        <v>1.600247167408157e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.38541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>775792.1349950626</v>
+        <v>932797.8342736692</v>
       </c>
     </row>
     <row r="9">
@@ -15214,28 +15214,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>619.5362828550285</v>
+        <v>738.0895886431724</v>
       </c>
       <c r="AB9" t="n">
-        <v>847.6768742140538</v>
+        <v>1009.886737396114</v>
       </c>
       <c r="AC9" t="n">
-        <v>766.7757830610288</v>
+        <v>913.5045645639666</v>
       </c>
       <c r="AD9" t="n">
-        <v>619536.2828550285</v>
+        <v>738089.5886431724</v>
       </c>
       <c r="AE9" t="n">
-        <v>847676.8742140537</v>
+        <v>1009886.737396114</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.10600023756211e-06</v>
+        <v>1.612422581871323e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.17708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>766775.7830610288</v>
+        <v>913504.5645639666</v>
       </c>
     </row>
     <row r="10">
@@ -15320,28 +15320,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>614.8528531668644</v>
+        <v>733.4061589550082</v>
       </c>
       <c r="AB10" t="n">
-        <v>841.268799096372</v>
+        <v>1003.478662278433</v>
       </c>
       <c r="AC10" t="n">
-        <v>760.979285638789</v>
+        <v>907.7080671417266</v>
       </c>
       <c r="AD10" t="n">
-        <v>614852.8531668644</v>
+        <v>733406.1589550083</v>
       </c>
       <c r="AE10" t="n">
-        <v>841268.7990963721</v>
+        <v>1003478.662278433</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.110475064893383e-06</v>
+        <v>1.618946371282819e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.05989583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>760979.2856387889</v>
+        <v>907708.0671417266</v>
       </c>
     </row>
     <row r="11">
@@ -15426,28 +15426,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>600.8724569779801</v>
+        <v>727.8145150554418</v>
       </c>
       <c r="AB11" t="n">
-        <v>822.1402042591903</v>
+        <v>995.8279284091271</v>
       </c>
       <c r="AC11" t="n">
-        <v>743.6762970457163</v>
+        <v>900.7875085750351</v>
       </c>
       <c r="AD11" t="n">
-        <v>600872.4569779801</v>
+        <v>727814.5150554418</v>
       </c>
       <c r="AE11" t="n">
-        <v>822140.2042591904</v>
+        <v>995827.9284091272</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.116002792773191e-06</v>
+        <v>1.627005169967609e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.91666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>743676.2970457163</v>
+        <v>900787.508575035</v>
       </c>
     </row>
     <row r="12">
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>595.0211586015921</v>
+        <v>721.9632166790539</v>
       </c>
       <c r="AB12" t="n">
-        <v>814.1341996795505</v>
+        <v>987.8219238294873</v>
       </c>
       <c r="AC12" t="n">
-        <v>736.4343743066595</v>
+        <v>893.5455858359782</v>
       </c>
       <c r="AD12" t="n">
-        <v>595021.1586015921</v>
+        <v>721963.2166790538</v>
       </c>
       <c r="AE12" t="n">
-        <v>814134.1996795505</v>
+        <v>987821.9238294873</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.122033041369345e-06</v>
+        <v>1.635796586714651e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.7734375</v>
       </c>
       <c r="AH12" t="n">
-        <v>736434.3743066594</v>
+        <v>893545.5858359782</v>
       </c>
     </row>
     <row r="13">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>589.4103963883175</v>
+        <v>708.0489535224822</v>
       </c>
       <c r="AB13" t="n">
-        <v>806.4573072899892</v>
+        <v>968.7838151246992</v>
       </c>
       <c r="AC13" t="n">
-        <v>729.4901537521715</v>
+        <v>876.3244475058215</v>
       </c>
       <c r="AD13" t="n">
-        <v>589410.3963883175</v>
+        <v>708048.9535224822</v>
       </c>
       <c r="AE13" t="n">
-        <v>806457.3072899892</v>
+        <v>968783.8151246993</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.126172854889721e-06</v>
+        <v>1.641831964084645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.66927083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>729490.1537521716</v>
+        <v>876324.4475058215</v>
       </c>
     </row>
     <row r="14">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>586.5618955256634</v>
+        <v>705.200452659828</v>
       </c>
       <c r="AB14" t="n">
-        <v>802.5598627427169</v>
+        <v>964.886370577427</v>
       </c>
       <c r="AC14" t="n">
-        <v>725.9646758423931</v>
+        <v>872.7989695960432</v>
       </c>
       <c r="AD14" t="n">
-        <v>586561.8955256634</v>
+        <v>705200.452659828</v>
       </c>
       <c r="AE14" t="n">
-        <v>802559.8627427169</v>
+        <v>964886.370577427</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.127919712617972e-06</v>
+        <v>1.644378684015336e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.63020833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>725964.6758423932</v>
+        <v>872798.9695960432</v>
       </c>
     </row>
     <row r="15">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>582.5620970371291</v>
+        <v>701.2006541712939</v>
       </c>
       <c r="AB15" t="n">
-        <v>797.087161992049</v>
+        <v>959.4136698267589</v>
       </c>
       <c r="AC15" t="n">
-        <v>721.0142819703852</v>
+        <v>867.8485757240351</v>
       </c>
       <c r="AD15" t="n">
-        <v>582562.0970371291</v>
+        <v>701200.6541712938</v>
       </c>
       <c r="AE15" t="n">
-        <v>797087.161992049</v>
+        <v>959413.6698267589</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.130671611778915e-06</v>
+        <v>1.648390640070534e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>721014.2819703852</v>
+        <v>867848.575724035</v>
       </c>
     </row>
     <row r="16">
@@ -15956,28 +15956,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>578.3129586846998</v>
+        <v>696.7809236182721</v>
       </c>
       <c r="AB16" t="n">
-        <v>791.2733034395011</v>
+        <v>953.3663994993642</v>
       </c>
       <c r="AC16" t="n">
-        <v>715.7552899182909</v>
+        <v>862.3784483892897</v>
       </c>
       <c r="AD16" t="n">
-        <v>578312.9586846997</v>
+        <v>696780.9236182722</v>
       </c>
       <c r="AE16" t="n">
-        <v>791273.3034395011</v>
+        <v>953366.3994993642</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.133902102098283e-06</v>
+        <v>1.653100327613593e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.47395833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>715755.2899182909</v>
+        <v>862378.4483892897</v>
       </c>
     </row>
     <row r="17">
@@ -16062,28 +16062,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>572.4921761764881</v>
+        <v>690.9601411100605</v>
       </c>
       <c r="AB17" t="n">
-        <v>783.3090520169653</v>
+        <v>945.4021480768283</v>
       </c>
       <c r="AC17" t="n">
-        <v>708.5511354736248</v>
+        <v>855.1742939446235</v>
       </c>
       <c r="AD17" t="n">
-        <v>572492.1761764881</v>
+        <v>690960.1411100605</v>
       </c>
       <c r="AE17" t="n">
-        <v>783309.0520169653</v>
+        <v>945402.1480768283</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.136989015070124e-06</v>
+        <v>1.657600695710293e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.40885416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>708551.1354736248</v>
+        <v>855174.2939446236</v>
       </c>
     </row>
     <row r="18">
@@ -16168,28 +16168,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>567.7734395569762</v>
+        <v>686.2414044905486</v>
       </c>
       <c r="AB18" t="n">
-        <v>776.8526683981817</v>
+        <v>938.9457644580447</v>
       </c>
       <c r="AC18" t="n">
-        <v>702.7109400458266</v>
+        <v>849.3340985168254</v>
       </c>
       <c r="AD18" t="n">
-        <v>567773.4395569762</v>
+        <v>686241.4044905485</v>
       </c>
       <c r="AE18" t="n">
-        <v>776852.6683981817</v>
+        <v>938945.7644580447</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.136510423911699e-06</v>
+        <v>1.656902964222432e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH18" t="n">
-        <v>702710.9400458266</v>
+        <v>849334.0985168254</v>
       </c>
     </row>
     <row r="19">
@@ -16274,28 +16274,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>566.4730050151386</v>
+        <v>684.9409699487111</v>
       </c>
       <c r="AB19" t="n">
-        <v>775.0733564869167</v>
+        <v>937.1664525467797</v>
       </c>
       <c r="AC19" t="n">
-        <v>701.1014431660927</v>
+        <v>847.7246016370915</v>
       </c>
       <c r="AD19" t="n">
-        <v>566473.0050151387</v>
+        <v>684940.9699487111</v>
       </c>
       <c r="AE19" t="n">
-        <v>775073.3564869168</v>
+        <v>937166.4525467798</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.139286252630564e-06</v>
+        <v>1.660949806852024e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH19" t="n">
-        <v>701101.4431660927</v>
+        <v>847724.6016370915</v>
       </c>
     </row>
     <row r="20">
@@ -16380,28 +16380,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>562.0260345262698</v>
+        <v>680.4939994598423</v>
       </c>
       <c r="AB20" t="n">
-        <v>768.9888152775545</v>
+        <v>931.0819113374175</v>
       </c>
       <c r="AC20" t="n">
-        <v>695.5976020300449</v>
+        <v>842.2207605010436</v>
       </c>
       <c r="AD20" t="n">
-        <v>562026.0345262698</v>
+        <v>680493.9994598422</v>
       </c>
       <c r="AE20" t="n">
-        <v>768988.8152775546</v>
+        <v>931081.9113374176</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.139166604840958e-06</v>
+        <v>1.660775373980059e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>695597.6020300449</v>
+        <v>842220.7605010436</v>
       </c>
     </row>
     <row r="21">
@@ -16486,28 +16486,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>561.1743074638914</v>
+        <v>679.6422723974637</v>
       </c>
       <c r="AB21" t="n">
-        <v>767.8234447352625</v>
+        <v>929.9165407951255</v>
       </c>
       <c r="AC21" t="n">
-        <v>694.5434528167012</v>
+        <v>841.1666112877</v>
       </c>
       <c r="AD21" t="n">
-        <v>561174.3074638915</v>
+        <v>679642.2723974637</v>
       </c>
       <c r="AE21" t="n">
-        <v>767823.4447352624</v>
+        <v>929916.5407951254</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.141942433559822e-06</v>
+        <v>1.66482221660965e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>694543.4528167013</v>
+        <v>841166.6112877</v>
       </c>
     </row>
   </sheetData>
@@ -16783,28 +16783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.8668439698184</v>
+        <v>534.2266814848832</v>
       </c>
       <c r="AB2" t="n">
-        <v>578.5850714880186</v>
+        <v>730.9525140254298</v>
       </c>
       <c r="AC2" t="n">
-        <v>523.3657243144493</v>
+        <v>661.1914319851387</v>
       </c>
       <c r="AD2" t="n">
-        <v>422866.8439698184</v>
+        <v>534226.6814848832</v>
       </c>
       <c r="AE2" t="n">
-        <v>578585.0714880186</v>
+        <v>730952.5140254297</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.282374312207427e-06</v>
+        <v>2.054664874904526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.07552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>523365.7243144492</v>
+        <v>661191.4319851387</v>
       </c>
     </row>
     <row r="3">
@@ -16889,28 +16889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.0954732023301</v>
+        <v>480.0199487363511</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.5904185966907</v>
+        <v>656.7844708466181</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.4786312780104</v>
+        <v>594.1018827518103</v>
       </c>
       <c r="AD3" t="n">
-        <v>376095.4732023301</v>
+        <v>480019.9487363511</v>
       </c>
       <c r="AE3" t="n">
-        <v>514590.4185966908</v>
+        <v>656784.4708466181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.365309527557316e-06</v>
+        <v>2.187546571184557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.31770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>465478.6312780104</v>
+        <v>594101.8827518104</v>
       </c>
     </row>
     <row r="4">
@@ -16995,28 +16995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.2185958996297</v>
+        <v>479.1430714336506</v>
       </c>
       <c r="AB4" t="n">
-        <v>513.3906363860398</v>
+        <v>655.5846886359669</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.393354597639</v>
+        <v>593.016606071439</v>
       </c>
       <c r="AD4" t="n">
-        <v>375218.5958996297</v>
+        <v>479143.0714336506</v>
       </c>
       <c r="AE4" t="n">
-        <v>513390.6363860398</v>
+        <v>655584.688635967</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.368946534584055e-06</v>
+        <v>2.193373910765898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>464393.354597639</v>
+        <v>593016.606071439</v>
       </c>
     </row>
   </sheetData>
@@ -17292,28 +17292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>825.2064744798751</v>
+        <v>981.5521772427885</v>
       </c>
       <c r="AB2" t="n">
-        <v>1129.083903923646</v>
+        <v>1343.002991929469</v>
       </c>
       <c r="AC2" t="n">
-        <v>1021.325720812384</v>
+        <v>1214.828671296258</v>
       </c>
       <c r="AD2" t="n">
-        <v>825206.4744798751</v>
+        <v>981552.1772427885</v>
       </c>
       <c r="AE2" t="n">
-        <v>1129083.903923646</v>
+        <v>1343002.991929469</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.76837097148481e-07</v>
+        <v>1.301965598691676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.94010416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1021325.720812384</v>
+        <v>1214828.671296258</v>
       </c>
     </row>
     <row r="3">
@@ -17398,28 +17398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.9058536261541</v>
+        <v>792.4666665771282</v>
       </c>
       <c r="AB3" t="n">
-        <v>904.280546039761</v>
+        <v>1084.287854372722</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.9772798914432</v>
+        <v>980.8049433589501</v>
       </c>
       <c r="AD3" t="n">
-        <v>660905.8536261541</v>
+        <v>792466.6665771282</v>
       </c>
       <c r="AE3" t="n">
-        <v>904280.546039761</v>
+        <v>1084287.854372722</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.037899471015391e-06</v>
+        <v>1.541117968841482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>817977.2798914432</v>
+        <v>980804.9433589501</v>
       </c>
     </row>
     <row r="4">
@@ -17504,28 +17504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.8410268646492</v>
+        <v>731.1686269936506</v>
       </c>
       <c r="AB4" t="n">
-        <v>831.6749090097369</v>
+        <v>1000.41717233596</v>
       </c>
       <c r="AC4" t="n">
-        <v>752.3010229569129</v>
+        <v>904.9387615025348</v>
       </c>
       <c r="AD4" t="n">
-        <v>607841.0268646491</v>
+        <v>731168.6269936506</v>
       </c>
       <c r="AE4" t="n">
-        <v>831674.9090097368</v>
+        <v>1000417.17233596</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.098727012582367e-06</v>
+        <v>1.631437330135315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>752301.0229569129</v>
+        <v>904938.7615025348</v>
       </c>
     </row>
     <row r="5">
@@ -17610,28 +17610,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>581.2036682526521</v>
+        <v>704.6165197276739</v>
       </c>
       <c r="AB5" t="n">
-        <v>795.2284997994789</v>
+        <v>964.0874077783509</v>
       </c>
       <c r="AC5" t="n">
-        <v>719.3330078888251</v>
+        <v>872.0762586851595</v>
       </c>
       <c r="AD5" t="n">
-        <v>581203.668252652</v>
+        <v>704616.5197276738</v>
       </c>
       <c r="AE5" t="n">
-        <v>795228.4997994789</v>
+        <v>964087.4077783509</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.12972542435842e-06</v>
+        <v>1.677465110982807e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>719333.0078888251</v>
+        <v>872076.2586851595</v>
       </c>
     </row>
     <row r="6">
@@ -17716,28 +17716,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>570.0011876801287</v>
+        <v>685.1809158417288</v>
       </c>
       <c r="AB6" t="n">
-        <v>779.9007716615901</v>
+        <v>937.4947571032725</v>
       </c>
       <c r="AC6" t="n">
-        <v>705.468136611815</v>
+        <v>848.0215732674909</v>
       </c>
       <c r="AD6" t="n">
-        <v>570001.1876801287</v>
+        <v>685180.9158417288</v>
       </c>
       <c r="AE6" t="n">
-        <v>779900.7716615901</v>
+        <v>937494.7571032725</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.146592938952452e-06</v>
+        <v>1.702510725280237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.25520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>705468.136611815</v>
+        <v>848021.573267491</v>
       </c>
     </row>
     <row r="7">
@@ -17822,28 +17822,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>551.8464803184943</v>
+        <v>675.1739909389446</v>
       </c>
       <c r="AB7" t="n">
-        <v>755.0607001202397</v>
+        <v>923.802840976914</v>
       </c>
       <c r="AC7" t="n">
-        <v>682.9987666351118</v>
+        <v>835.6363943995073</v>
       </c>
       <c r="AD7" t="n">
-        <v>551846.4803184943</v>
+        <v>675173.9909389446</v>
       </c>
       <c r="AE7" t="n">
-        <v>755060.7001202398</v>
+        <v>923802.840976914</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.159355527428468e-06</v>
+        <v>1.721461167956612e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.94270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>682998.7666351118</v>
+        <v>835636.3943995072</v>
       </c>
     </row>
     <row r="8">
@@ -17928,28 +17928,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>544.517655224642</v>
+        <v>659.7826347322627</v>
       </c>
       <c r="AB8" t="n">
-        <v>745.033078301887</v>
+        <v>902.7437083962187</v>
       </c>
       <c r="AC8" t="n">
-        <v>673.9281669692471</v>
+        <v>816.5871158756353</v>
       </c>
       <c r="AD8" t="n">
-        <v>544517.655224642</v>
+        <v>659782.6347322627</v>
       </c>
       <c r="AE8" t="n">
-        <v>745033.078301887</v>
+        <v>902743.7083962187</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.170227362056185e-06</v>
+        <v>1.737604137643895e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.68229166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>673928.166969247</v>
+        <v>816587.1158756353</v>
       </c>
     </row>
     <row r="9">
@@ -18034,28 +18034,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>535.7138457108506</v>
+        <v>650.808233017879</v>
       </c>
       <c r="AB9" t="n">
-        <v>732.9873177284534</v>
+        <v>890.4645360479383</v>
       </c>
       <c r="AC9" t="n">
-        <v>663.0320368786108</v>
+        <v>805.4798505023481</v>
       </c>
       <c r="AD9" t="n">
-        <v>535713.8457108506</v>
+        <v>650808.2330178791</v>
       </c>
       <c r="AE9" t="n">
-        <v>732987.3177284534</v>
+        <v>890464.5360479383</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.177815255789489e-06</v>
+        <v>1.748870970034332e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>663032.0368786108</v>
+        <v>805479.850502348</v>
       </c>
     </row>
     <row r="10">
@@ -18140,28 +18140,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>530.2642094647125</v>
+        <v>645.3585967717411</v>
       </c>
       <c r="AB10" t="n">
-        <v>725.5308849955043</v>
+        <v>883.0081033149891</v>
       </c>
       <c r="AC10" t="n">
-        <v>656.2872356205252</v>
+        <v>798.7350492442624</v>
       </c>
       <c r="AD10" t="n">
-        <v>530264.2094647125</v>
+        <v>645358.5967717411</v>
       </c>
       <c r="AE10" t="n">
-        <v>725530.8849955043</v>
+        <v>883008.103314989</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.18301482887231e-06</v>
+        <v>1.756591520754336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.3828125</v>
       </c>
       <c r="AH10" t="n">
-        <v>656287.2356205252</v>
+        <v>798735.0492442624</v>
       </c>
     </row>
     <row r="11">
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>524.5540939155409</v>
+        <v>639.6484812225692</v>
       </c>
       <c r="AB11" t="n">
-        <v>717.7180529886086</v>
+        <v>875.1952713080933</v>
       </c>
       <c r="AC11" t="n">
-        <v>649.2200493349891</v>
+        <v>791.6678629587262</v>
       </c>
       <c r="AD11" t="n">
-        <v>524554.0939155408</v>
+        <v>639648.4812225692</v>
       </c>
       <c r="AE11" t="n">
-        <v>717718.0529886086</v>
+        <v>875195.2713080933</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.185801202964539e-06</v>
+        <v>1.760728849369841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.31770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>649220.049334989</v>
+        <v>791667.8629587262</v>
       </c>
     </row>
     <row r="12">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>517.7560014463527</v>
+        <v>632.8503887533811</v>
       </c>
       <c r="AB12" t="n">
-        <v>708.4166029615922</v>
+        <v>865.893821281077</v>
       </c>
       <c r="AC12" t="n">
-        <v>640.8063166438841</v>
+        <v>783.2541302676211</v>
       </c>
       <c r="AD12" t="n">
-        <v>517756.0014463526</v>
+        <v>632850.3887533811</v>
       </c>
       <c r="AE12" t="n">
-        <v>708416.6029615921</v>
+        <v>865893.821281077</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.191150046088016e-06</v>
+        <v>1.768671042694247e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.20052083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>640806.3166438841</v>
+        <v>783254.1302676211</v>
       </c>
     </row>
     <row r="13">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>513.8277873566323</v>
+        <v>628.9221746636607</v>
       </c>
       <c r="AB13" t="n">
-        <v>703.0418471434622</v>
+        <v>860.5190654629469</v>
       </c>
       <c r="AC13" t="n">
-        <v>635.944519977519</v>
+        <v>778.3923336012564</v>
       </c>
       <c r="AD13" t="n">
-        <v>513827.7873566322</v>
+        <v>628922.1746636607</v>
       </c>
       <c r="AE13" t="n">
-        <v>703041.8471434622</v>
+        <v>860519.0654629469</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193687636779153e-06</v>
+        <v>1.772438966969082e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>635944.5199775191</v>
+        <v>778392.3336012564</v>
       </c>
     </row>
     <row r="14">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>511.5979288283934</v>
+        <v>626.6923161354218</v>
       </c>
       <c r="AB14" t="n">
-        <v>699.9908563307102</v>
+        <v>857.4680746501951</v>
       </c>
       <c r="AC14" t="n">
-        <v>633.184711445844</v>
+        <v>775.632525069581</v>
       </c>
       <c r="AD14" t="n">
-        <v>511597.9288283934</v>
+        <v>626692.3161354219</v>
       </c>
       <c r="AE14" t="n">
-        <v>699990.8563307102</v>
+        <v>857468.0746501952</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.193961298520354e-06</v>
+        <v>1.772845311743819e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>633184.7114458439</v>
+        <v>775632.525069581</v>
       </c>
     </row>
     <row r="15">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>512.4160918980974</v>
+        <v>627.5104792051259</v>
       </c>
       <c r="AB15" t="n">
-        <v>701.1103031374864</v>
+        <v>858.5875214569713</v>
       </c>
       <c r="AC15" t="n">
-        <v>634.1973198205346</v>
+        <v>776.6451334442719</v>
       </c>
       <c r="AD15" t="n">
-        <v>512416.0918980974</v>
+        <v>627510.4792051258</v>
       </c>
       <c r="AE15" t="n">
-        <v>701110.3031374865</v>
+        <v>858587.5214569713</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.193613001758826e-06</v>
+        <v>1.772328145666881e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.13541666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>634197.3198205347</v>
+        <v>776645.1334442719</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>936.3388244809641</v>
+        <v>1103.338354713306</v>
       </c>
       <c r="AB2" t="n">
-        <v>1281.140088008394</v>
+        <v>1509.636212771586</v>
       </c>
       <c r="AC2" t="n">
-        <v>1158.869876100279</v>
+        <v>1365.558651412397</v>
       </c>
       <c r="AD2" t="n">
-        <v>936338.8244809641</v>
+        <v>1103338.354713306</v>
       </c>
       <c r="AE2" t="n">
-        <v>1281140.088008394</v>
+        <v>1509636.212771586</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.135672619606967e-07</v>
+        <v>1.196303861626299e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.01041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1158869.876100279</v>
+        <v>1365558.651412397</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>720.5775384015037</v>
+        <v>854.2283850018302</v>
       </c>
       <c r="AB3" t="n">
-        <v>985.9259776783323</v>
+        <v>1168.792962256114</v>
       </c>
       <c r="AC3" t="n">
-        <v>891.830586124512</v>
+        <v>1057.245002349615</v>
       </c>
       <c r="AD3" t="n">
-        <v>720577.5384015037</v>
+        <v>854228.3850018303</v>
       </c>
       <c r="AE3" t="n">
-        <v>985925.9776783322</v>
+        <v>1168792.962256114</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.875862181908444e-07</v>
+        <v>1.45218872704307e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.13541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>891830.586124512</v>
+        <v>1057245.002349615</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>659.9386834233527</v>
+        <v>785.2310239020326</v>
       </c>
       <c r="AB4" t="n">
-        <v>902.9572210997507</v>
+        <v>1074.38772885063</v>
       </c>
       <c r="AC4" t="n">
-        <v>816.7802512264088</v>
+        <v>971.8496719217734</v>
       </c>
       <c r="AD4" t="n">
-        <v>659938.6834233527</v>
+        <v>785231.0239020325</v>
       </c>
       <c r="AE4" t="n">
-        <v>902957.2210997506</v>
+        <v>1074387.72885063</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.053059662151368e-06</v>
+        <v>1.548463660298351e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.14322916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>816780.2512264089</v>
+        <v>971849.6719217733</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>630.9186100424524</v>
+        <v>756.1256096665608</v>
       </c>
       <c r="AB5" t="n">
-        <v>863.2506764247227</v>
+        <v>1034.564417053404</v>
       </c>
       <c r="AC5" t="n">
-        <v>780.8632434466801</v>
+        <v>935.8270411101058</v>
       </c>
       <c r="AD5" t="n">
-        <v>630918.6100424525</v>
+        <v>756125.6096665608</v>
       </c>
       <c r="AE5" t="n">
-        <v>863250.6764247227</v>
+        <v>1034564.417053404</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.085625753413937e-06</v>
+        <v>1.596350224270449e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.23177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>780863.2434466801</v>
+        <v>935827.0411101058</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>609.7917104617507</v>
+        <v>735.0839614318795</v>
       </c>
       <c r="AB6" t="n">
-        <v>834.3439203653776</v>
+        <v>1005.774305646709</v>
       </c>
       <c r="AC6" t="n">
-        <v>754.7153076147523</v>
+        <v>909.7846175288903</v>
       </c>
       <c r="AD6" t="n">
-        <v>609791.7104617506</v>
+        <v>735083.9614318796</v>
       </c>
       <c r="AE6" t="n">
-        <v>834343.9203653776</v>
+        <v>1005774.305646709</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.105248285948643e-06</v>
+        <v>1.625204029657828e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.7109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>754715.3076147523</v>
+        <v>909784.6175288903</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>597.507812378418</v>
+        <v>714.4416467354511</v>
       </c>
       <c r="AB7" t="n">
-        <v>817.5365490804259</v>
+        <v>977.5305800044038</v>
       </c>
       <c r="AC7" t="n">
-        <v>739.5120082559425</v>
+        <v>884.2364334215684</v>
       </c>
       <c r="AD7" t="n">
-        <v>597507.8123784179</v>
+        <v>714441.6467354511</v>
       </c>
       <c r="AE7" t="n">
-        <v>817536.5490804259</v>
+        <v>977530.5800044037</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.1222138544507e-06</v>
+        <v>1.650150922266046e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>739512.0082559425</v>
+        <v>884236.4334215685</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>590.5178759775141</v>
+        <v>707.4517103345473</v>
       </c>
       <c r="AB8" t="n">
-        <v>807.9726097224792</v>
+        <v>967.9666406464571</v>
       </c>
       <c r="AC8" t="n">
-        <v>730.860837847245</v>
+        <v>875.5852630128711</v>
       </c>
       <c r="AD8" t="n">
-        <v>590517.8759775141</v>
+        <v>707451.7103345473</v>
       </c>
       <c r="AE8" t="n">
-        <v>807972.6097224792</v>
+        <v>967966.6406464571</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.132354194245032e-06</v>
+        <v>1.665061708652568e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.03385416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>730860.8378472449</v>
+        <v>875585.2630128711</v>
       </c>
     </row>
     <row r="9">
@@ -19709,28 +19709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>574.886068283943</v>
+        <v>700.0929783995002</v>
       </c>
       <c r="AB9" t="n">
-        <v>786.5844808094513</v>
+        <v>957.898098968585</v>
       </c>
       <c r="AC9" t="n">
-        <v>711.5139619392489</v>
+        <v>866.4776488214482</v>
       </c>
       <c r="AD9" t="n">
-        <v>574886.068283943</v>
+        <v>700092.9783995003</v>
       </c>
       <c r="AE9" t="n">
-        <v>786584.4808094513</v>
+        <v>957898.098968585</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.140276334709355e-06</v>
+        <v>1.676710760517038e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.83854166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>711513.961939249</v>
+        <v>866477.6488214482</v>
       </c>
     </row>
     <row r="10">
@@ -19815,28 +19815,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>568.9429555704083</v>
+        <v>685.9620412734623</v>
       </c>
       <c r="AB10" t="n">
-        <v>778.4528518031649</v>
+        <v>938.5635273797922</v>
       </c>
       <c r="AC10" t="n">
-        <v>704.1584041925096</v>
+        <v>848.9883416088479</v>
       </c>
       <c r="AD10" t="n">
-        <v>568942.9555704084</v>
+        <v>685962.0412734624</v>
       </c>
       <c r="AE10" t="n">
-        <v>778452.8518031649</v>
+        <v>938563.5273797922</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.1458583967596e-06</v>
+        <v>1.684918861676926e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.6953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>704158.4041925096</v>
+        <v>848988.341608848</v>
       </c>
     </row>
     <row r="11">
@@ -19921,28 +19921,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>563.4104390504865</v>
+        <v>680.4295247535404</v>
       </c>
       <c r="AB11" t="n">
-        <v>770.8830186232051</v>
+        <v>930.9936941998321</v>
       </c>
       <c r="AC11" t="n">
-        <v>697.3110252669175</v>
+        <v>842.1409626832558</v>
       </c>
       <c r="AD11" t="n">
-        <v>563410.4390504865</v>
+        <v>680429.5247535404</v>
       </c>
       <c r="AE11" t="n">
-        <v>770883.0186232051</v>
+        <v>930993.6941998322</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.150757935939074e-06</v>
+        <v>1.692123352214644e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH11" t="n">
-        <v>697311.0252669174</v>
+        <v>842140.9626832558</v>
       </c>
     </row>
     <row r="12">
@@ -20027,28 +20027,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>557.7638322361158</v>
+        <v>674.6123257385775</v>
       </c>
       <c r="AB12" t="n">
-        <v>763.157082069072</v>
+        <v>923.034345870852</v>
       </c>
       <c r="AC12" t="n">
-        <v>690.3224412540908</v>
+        <v>834.9412433877779</v>
       </c>
       <c r="AD12" t="n">
-        <v>557763.8322361158</v>
+        <v>674612.3257385775</v>
       </c>
       <c r="AE12" t="n">
-        <v>763157.0820690719</v>
+        <v>923034.345870852</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.154584939178762e-06</v>
+        <v>1.697750740346096e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.48697916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>690322.4412540908</v>
+        <v>834941.2433877779</v>
       </c>
     </row>
     <row r="13">
@@ -20133,28 +20133,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>551.4477190528465</v>
+        <v>668.2962125553081</v>
       </c>
       <c r="AB13" t="n">
-        <v>754.515097364475</v>
+        <v>914.3923611662551</v>
       </c>
       <c r="AC13" t="n">
-        <v>682.5052354405988</v>
+        <v>827.1240375742861</v>
       </c>
       <c r="AD13" t="n">
-        <v>551447.7190528465</v>
+        <v>668296.2125553081</v>
       </c>
       <c r="AE13" t="n">
-        <v>754515.097364475</v>
+        <v>914392.3611662551</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.159923243060874e-06</v>
+        <v>1.705600409140923e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.36979166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>682505.2354405988</v>
+        <v>827124.0375742861</v>
       </c>
     </row>
     <row r="14">
@@ -20239,28 +20239,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>545.9492720321615</v>
+        <v>662.7977655346231</v>
       </c>
       <c r="AB14" t="n">
-        <v>746.9918795764111</v>
+        <v>906.8691433781912</v>
       </c>
       <c r="AC14" t="n">
-        <v>675.7000229993253</v>
+        <v>820.3188251330126</v>
       </c>
       <c r="AD14" t="n">
-        <v>545949.2720321615</v>
+        <v>662797.7655346231</v>
       </c>
       <c r="AE14" t="n">
-        <v>746991.8795764111</v>
+        <v>906869.1433781912</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.16328710578111e-06</v>
+        <v>1.71054677577876e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.27864583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>675700.0229993253</v>
+        <v>820318.8251330126</v>
       </c>
     </row>
     <row r="15">
@@ -20345,28 +20345,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>542.4536214164074</v>
+        <v>659.3021149188691</v>
       </c>
       <c r="AB15" t="n">
-        <v>742.2089761867155</v>
+        <v>902.0862399884955</v>
       </c>
       <c r="AC15" t="n">
-        <v>671.3735931962952</v>
+        <v>815.9923953299825</v>
       </c>
       <c r="AD15" t="n">
-        <v>542453.6214164074</v>
+        <v>659302.1149188691</v>
       </c>
       <c r="AE15" t="n">
-        <v>742208.9761867155</v>
+        <v>902086.2399884956</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.161946435856379e-06</v>
+        <v>1.708575397770926e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.31770833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>671373.5931962952</v>
+        <v>815992.3953299825</v>
       </c>
     </row>
     <row r="16">
@@ -20451,28 +20451,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>540.6069154310219</v>
+        <v>657.4554089334836</v>
       </c>
       <c r="AB16" t="n">
-        <v>739.6822315865927</v>
+        <v>899.5594953883729</v>
       </c>
       <c r="AC16" t="n">
-        <v>669.0879975544999</v>
+        <v>813.7067996881872</v>
       </c>
       <c r="AD16" t="n">
-        <v>540606.9154310219</v>
+        <v>657455.4089334835</v>
       </c>
       <c r="AE16" t="n">
-        <v>739682.2315865927</v>
+        <v>899559.4953883728</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.165017788774854e-06</v>
+        <v>1.71309164557069e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.23958333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>669087.9975544999</v>
+        <v>813706.7996881872</v>
       </c>
     </row>
     <row r="17">
@@ -20557,28 +20557,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>536.864835151492</v>
+        <v>653.7133286539537</v>
       </c>
       <c r="AB17" t="n">
-        <v>734.5621522592096</v>
+        <v>894.4394160609897</v>
       </c>
       <c r="AC17" t="n">
-        <v>664.4565714120456</v>
+        <v>809.0753735457328</v>
       </c>
       <c r="AD17" t="n">
-        <v>536864.835151492</v>
+        <v>653713.3286539537</v>
       </c>
       <c r="AE17" t="n">
-        <v>734562.1522592095</v>
+        <v>894439.4160609897</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.165090916225294e-06</v>
+        <v>1.713199175280208e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.23958333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>664456.5714120456</v>
+        <v>809075.3735457328</v>
       </c>
     </row>
     <row r="18">
@@ -20663,28 +20663,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>536.8646603873381</v>
+        <v>653.7131538897996</v>
       </c>
       <c r="AB18" t="n">
-        <v>734.561913139184</v>
+        <v>894.4391769409641</v>
       </c>
       <c r="AC18" t="n">
-        <v>664.4563551132997</v>
+        <v>809.0751572469869</v>
       </c>
       <c r="AD18" t="n">
-        <v>536864.660387338</v>
+        <v>653713.1538897996</v>
       </c>
       <c r="AE18" t="n">
-        <v>734561.913139184</v>
+        <v>894439.1769409641</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.167674752807504e-06</v>
+        <v>1.716998558349851e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH18" t="n">
-        <v>664456.3551132997</v>
+        <v>809075.1572469869</v>
       </c>
     </row>
   </sheetData>
@@ -20960,28 +20960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1160.803219928297</v>
+        <v>1349.436522310947</v>
       </c>
       <c r="AB2" t="n">
-        <v>1588.262176529667</v>
+        <v>1846.358582763577</v>
       </c>
       <c r="AC2" t="n">
-        <v>1436.68066354164</v>
+        <v>1670.144711005168</v>
       </c>
       <c r="AD2" t="n">
-        <v>1160803.219928297</v>
+        <v>1349436.522310947</v>
       </c>
       <c r="AE2" t="n">
-        <v>1588262.176529667</v>
+        <v>1846358.582763578</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.05160722752511e-07</v>
+        <v>1.020207146458666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.45052083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1436680.66354164</v>
+        <v>1670144.711005168</v>
       </c>
     </row>
     <row r="3">
@@ -21066,28 +21066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>845.8207317503683</v>
+        <v>991.6293989459436</v>
       </c>
       <c r="AB3" t="n">
-        <v>1157.28924015798</v>
+        <v>1356.791091239371</v>
       </c>
       <c r="AC3" t="n">
-        <v>1046.839179342952</v>
+        <v>1227.300853759742</v>
       </c>
       <c r="AD3" t="n">
-        <v>845820.7317503683</v>
+        <v>991629.3989459437</v>
       </c>
       <c r="AE3" t="n">
-        <v>1157289.24015798</v>
+        <v>1356791.091239371</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.960442082448577e-07</v>
+        <v>1.296372125245465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.19270833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1046839.179342952</v>
+        <v>1227300.853759742</v>
       </c>
     </row>
     <row r="4">
@@ -21172,28 +21172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>756.8839760379226</v>
+        <v>894.1958993711895</v>
       </c>
       <c r="AB4" t="n">
-        <v>1035.602047379465</v>
+        <v>1223.478278658562</v>
       </c>
       <c r="AC4" t="n">
-        <v>936.7656414541702</v>
+        <v>1106.711228905937</v>
       </c>
       <c r="AD4" t="n">
-        <v>756883.9760379225</v>
+        <v>894195.8993711895</v>
       </c>
       <c r="AE4" t="n">
-        <v>1035602.047379465</v>
+        <v>1223478.278658562</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.714282446700368e-07</v>
+        <v>1.40543567658688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>936765.6414541702</v>
+        <v>1106711.228905937</v>
       </c>
     </row>
     <row r="5">
@@ -21278,28 +21278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>717.2247107678603</v>
+        <v>845.8693875467773</v>
       </c>
       <c r="AB5" t="n">
-        <v>981.3384909936658</v>
+        <v>1157.35581316517</v>
       </c>
       <c r="AC5" t="n">
-        <v>887.6809227304519</v>
+        <v>1046.899398715771</v>
       </c>
       <c r="AD5" t="n">
-        <v>717224.7107678603</v>
+        <v>845869.3875467773</v>
       </c>
       <c r="AE5" t="n">
-        <v>981338.4909936658</v>
+        <v>1157355.81316517</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013308264906248e-06</v>
+        <v>1.466026538443222e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.234375</v>
       </c>
       <c r="AH5" t="n">
-        <v>887680.9227304519</v>
+        <v>1046899.398715771</v>
       </c>
     </row>
     <row r="6">
@@ -21384,28 +21384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>693.6007851856938</v>
+        <v>822.3307133106315</v>
       </c>
       <c r="AB6" t="n">
-        <v>949.0151937981044</v>
+        <v>1125.149160622258</v>
       </c>
       <c r="AC6" t="n">
-        <v>858.4425156532028</v>
+        <v>1017.766503889234</v>
       </c>
       <c r="AD6" t="n">
-        <v>693600.7851856938</v>
+        <v>822330.7133106315</v>
       </c>
       <c r="AE6" t="n">
-        <v>949015.1937981044</v>
+        <v>1125149.160622258</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.034671780846966e-06</v>
+        <v>1.496934685951963e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>858442.5156532028</v>
+        <v>1017766.503889234</v>
       </c>
     </row>
     <row r="7">
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>679.2307711220674</v>
+        <v>807.7901070464128</v>
       </c>
       <c r="AB7" t="n">
-        <v>929.353506595973</v>
+        <v>1105.254061645279</v>
       </c>
       <c r="AC7" t="n">
-        <v>840.6573122822915</v>
+        <v>999.7701652356715</v>
       </c>
       <c r="AD7" t="n">
-        <v>679230.7711220674</v>
+        <v>807790.1070464128</v>
       </c>
       <c r="AE7" t="n">
-        <v>929353.506595973</v>
+        <v>1105254.061645279</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.054058936282156e-06</v>
+        <v>1.524983489418045e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>840657.3122822915</v>
+        <v>999770.1652356714</v>
       </c>
     </row>
     <row r="8">
@@ -21596,28 +21596,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>661.923919902743</v>
+        <v>790.5685071731091</v>
       </c>
       <c r="AB8" t="n">
-        <v>905.6735092333048</v>
+        <v>1081.69070893526</v>
       </c>
       <c r="AC8" t="n">
-        <v>819.237300632831</v>
+        <v>978.4556658369233</v>
       </c>
       <c r="AD8" t="n">
-        <v>661923.9199027431</v>
+        <v>790568.5071731091</v>
       </c>
       <c r="AE8" t="n">
-        <v>905673.5092333048</v>
+        <v>1081690.70893526</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.065164200075129e-06</v>
+        <v>1.541050279752985e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.76302083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>819237.3006328309</v>
+        <v>978455.6658369233</v>
       </c>
     </row>
     <row r="9">
@@ -21702,28 +21702,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>656.0019961646901</v>
+        <v>784.6465834350562</v>
       </c>
       <c r="AB9" t="n">
-        <v>897.5708719180639</v>
+        <v>1073.588071620019</v>
       </c>
       <c r="AC9" t="n">
-        <v>811.9079676508338</v>
+        <v>971.1263328549261</v>
       </c>
       <c r="AD9" t="n">
-        <v>656001.9961646901</v>
+        <v>784646.5834350561</v>
       </c>
       <c r="AE9" t="n">
-        <v>897570.8719180638</v>
+        <v>1073588.071620019</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.072904945388451e-06</v>
+        <v>1.552249377253399e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.5546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>811907.9676508338</v>
+        <v>971126.3328549261</v>
       </c>
     </row>
     <row r="10">
@@ -21808,28 +21808,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>649.0268195732467</v>
+        <v>769.0895011438348</v>
       </c>
       <c r="AB10" t="n">
-        <v>888.027127582578</v>
+        <v>1052.302185299138</v>
       </c>
       <c r="AC10" t="n">
-        <v>803.2750648799973</v>
+        <v>951.8719416495809</v>
       </c>
       <c r="AD10" t="n">
-        <v>649026.8195732468</v>
+        <v>769089.5011438348</v>
       </c>
       <c r="AE10" t="n">
-        <v>888027.127582578</v>
+        <v>1052302.185299138</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.081798567663331e-06</v>
+        <v>1.565116425445363e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.3203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>803275.0648799973</v>
+        <v>951871.9416495808</v>
       </c>
     </row>
     <row r="11">
@@ -21914,28 +21914,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>643.0746659468532</v>
+        <v>763.1373475174413</v>
       </c>
       <c r="AB11" t="n">
-        <v>879.8831284004608</v>
+        <v>1044.158186117021</v>
       </c>
       <c r="AC11" t="n">
-        <v>795.908317549647</v>
+        <v>944.5051943192306</v>
       </c>
       <c r="AD11" t="n">
-        <v>643074.6659468532</v>
+        <v>763137.3475174413</v>
       </c>
       <c r="AE11" t="n">
-        <v>879883.1284004608</v>
+        <v>1044158.186117021</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.087704121078662e-06</v>
+        <v>1.573660417763308e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28.1640625</v>
       </c>
       <c r="AH11" t="n">
-        <v>795908.3175496469</v>
+        <v>944505.1943192305</v>
       </c>
     </row>
     <row r="12">
@@ -22020,28 +22020,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>637.8097590793532</v>
+        <v>757.8724406499412</v>
       </c>
       <c r="AB12" t="n">
-        <v>872.6794505530494</v>
+        <v>1036.95450826961</v>
       </c>
       <c r="AC12" t="n">
-        <v>789.3921486055669</v>
+        <v>937.9890253751504</v>
       </c>
       <c r="AD12" t="n">
-        <v>637809.7590793532</v>
+        <v>757872.4406499411</v>
       </c>
       <c r="AE12" t="n">
-        <v>872679.4505530493</v>
+        <v>1036954.50826961</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.093515562088968e-06</v>
+        <v>1.582068250841127e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>29</v>
+        <v>28.02083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>789392.1486055669</v>
+        <v>937989.0253751504</v>
       </c>
     </row>
     <row r="13">
@@ -22126,28 +22126,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>626.0425965000533</v>
+        <v>754.6018429158478</v>
       </c>
       <c r="AB13" t="n">
-        <v>856.5790995814765</v>
+        <v>1032.479532161234</v>
       </c>
       <c r="AC13" t="n">
-        <v>774.8283925337365</v>
+        <v>933.9411347058902</v>
       </c>
       <c r="AD13" t="n">
-        <v>626042.5965000533</v>
+        <v>754601.8429158478</v>
       </c>
       <c r="AE13" t="n">
-        <v>856579.0995814765</v>
+        <v>1032479.532161234</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.095586034999522e-06</v>
+        <v>1.585063754123912e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH13" t="n">
-        <v>774828.3925337365</v>
+        <v>933941.1347058902</v>
       </c>
     </row>
     <row r="14">
@@ -22232,28 +22232,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>620.7225220776065</v>
+        <v>749.281768493401</v>
       </c>
       <c r="AB14" t="n">
-        <v>849.299939051566</v>
+        <v>1025.200371631324</v>
       </c>
       <c r="AC14" t="n">
-        <v>768.2439448684348</v>
+        <v>927.3566870405883</v>
       </c>
       <c r="AD14" t="n">
-        <v>620722.5220776065</v>
+        <v>749281.768493401</v>
       </c>
       <c r="AE14" t="n">
-        <v>849299.9390515659</v>
+        <v>1025200.371631324</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.099915205630681e-06</v>
+        <v>1.591327079169736e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.8515625</v>
       </c>
       <c r="AH14" t="n">
-        <v>768243.9448684348</v>
+        <v>927356.6870405884</v>
       </c>
     </row>
     <row r="15">
@@ -22338,28 +22338,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>618.4565704406882</v>
+        <v>747.0158168564825</v>
       </c>
       <c r="AB15" t="n">
-        <v>846.1995640552035</v>
+        <v>1022.099996634961</v>
       </c>
       <c r="AC15" t="n">
-        <v>765.4394653103213</v>
+        <v>924.5522074824748</v>
       </c>
       <c r="AD15" t="n">
-        <v>618456.5704406882</v>
+        <v>747015.8168564825</v>
       </c>
       <c r="AE15" t="n">
-        <v>846199.5640552035</v>
+        <v>1022099.996634961</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.102126847148773e-06</v>
+        <v>1.594526821312712e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.79947916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>765439.4653103213</v>
+        <v>924552.2074824749</v>
       </c>
     </row>
     <row r="16">
@@ -22444,28 +22444,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>614.6907338592124</v>
+        <v>743.2499802750068</v>
       </c>
       <c r="AB16" t="n">
-        <v>841.0469803074435</v>
+        <v>1016.947412887201</v>
       </c>
       <c r="AC16" t="n">
-        <v>760.7786369237512</v>
+        <v>919.8913790959045</v>
       </c>
       <c r="AD16" t="n">
-        <v>614690.7338592124</v>
+        <v>743249.9802750068</v>
       </c>
       <c r="AE16" t="n">
-        <v>841046.9803074435</v>
+        <v>1016947.412887201</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.104032623350533e-06</v>
+        <v>1.597284045925275e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.74739583333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>760778.6369237511</v>
+        <v>919891.3790959045</v>
       </c>
     </row>
     <row r="17">
@@ -22550,28 +22550,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>609.6918360736598</v>
+        <v>729.8397689902683</v>
       </c>
       <c r="AB17" t="n">
-        <v>834.2072678214449</v>
+        <v>998.5989701906547</v>
       </c>
       <c r="AC17" t="n">
-        <v>754.5916969978193</v>
+        <v>903.2940860181151</v>
       </c>
       <c r="AD17" t="n">
-        <v>609691.8360736598</v>
+        <v>729839.7689902683</v>
       </c>
       <c r="AE17" t="n">
-        <v>834207.2678214449</v>
+        <v>998598.9701906546</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.108008872462847e-06</v>
+        <v>1.603036773820625e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.64322916666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>754591.6969978194</v>
+        <v>903294.086018115</v>
       </c>
     </row>
     <row r="18">
@@ -22656,28 +22656,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>604.1781923332154</v>
+        <v>724.3261252498239</v>
       </c>
       <c r="AB18" t="n">
-        <v>826.6632572109744</v>
+        <v>991.0549595801841</v>
       </c>
       <c r="AC18" t="n">
-        <v>747.7676761719268</v>
+        <v>896.4700651922224</v>
       </c>
       <c r="AD18" t="n">
-        <v>604178.1923332154</v>
+        <v>724326.1252498239</v>
       </c>
       <c r="AE18" t="n">
-        <v>826663.2572109743</v>
+        <v>991054.9595801841</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.110902828917372e-06</v>
+        <v>1.607223670454518e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH18" t="n">
-        <v>747767.6761719268</v>
+        <v>896470.0651922224</v>
       </c>
     </row>
     <row r="19">
@@ -22762,28 +22762,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>603.9822560073126</v>
+        <v>724.1301889239211</v>
       </c>
       <c r="AB19" t="n">
-        <v>826.3951684857735</v>
+        <v>990.7868708549832</v>
       </c>
       <c r="AC19" t="n">
-        <v>747.5251734583941</v>
+        <v>896.2275624786897</v>
       </c>
       <c r="AD19" t="n">
-        <v>603982.2560073126</v>
+        <v>724130.1889239211</v>
       </c>
       <c r="AE19" t="n">
-        <v>826395.1684857735</v>
+        <v>990786.8708549832</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.110902828917372e-06</v>
+        <v>1.607223670454518e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27.578125</v>
       </c>
       <c r="AH19" t="n">
-        <v>747525.1734583941</v>
+        <v>896227.5624786897</v>
       </c>
     </row>
     <row r="20">
@@ -22868,28 +22868,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>597.898265002234</v>
+        <v>717.8756057182504</v>
       </c>
       <c r="AB20" t="n">
-        <v>818.0707835858851</v>
+        <v>982.2290741802478</v>
       </c>
       <c r="AC20" t="n">
-        <v>739.9952561700036</v>
+        <v>888.4865099076482</v>
       </c>
       <c r="AD20" t="n">
-        <v>597898.265002234</v>
+        <v>717875.6057182504</v>
       </c>
       <c r="AE20" t="n">
-        <v>818070.7835858851</v>
+        <v>982229.0741802478</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.114055594485716e-06</v>
+        <v>1.61178500499876e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>739995.2561700036</v>
+        <v>888486.5099076482</v>
       </c>
     </row>
     <row r="21">
@@ -22974,28 +22974,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>597.3201878718951</v>
+        <v>717.2975285879115</v>
       </c>
       <c r="AB21" t="n">
-        <v>817.2798329531923</v>
+        <v>981.4381235475551</v>
       </c>
       <c r="AC21" t="n">
-        <v>739.2797927555888</v>
+        <v>887.7710464932334</v>
       </c>
       <c r="AD21" t="n">
-        <v>597320.187871895</v>
+        <v>717297.5285879115</v>
       </c>
       <c r="AE21" t="n">
-        <v>817279.8329531923</v>
+        <v>981438.1235475551</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.114102650688229e-06</v>
+        <v>1.611853084618823e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>739279.7927555888</v>
+        <v>887771.0464932334</v>
       </c>
     </row>
     <row r="22">
@@ -23080,28 +23080,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>591.4827863764204</v>
+        <v>711.4601270924367</v>
       </c>
       <c r="AB22" t="n">
-        <v>809.2928426991052</v>
+        <v>973.4511332934679</v>
       </c>
       <c r="AC22" t="n">
-        <v>732.0550696415405</v>
+        <v>880.5463233791851</v>
       </c>
       <c r="AD22" t="n">
-        <v>591482.7863764204</v>
+        <v>711460.1270924367</v>
       </c>
       <c r="AE22" t="n">
-        <v>809292.8426991053</v>
+        <v>973451.1332934679</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.116408404611346e-06</v>
+        <v>1.615188986001925e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>732055.0696415405</v>
+        <v>880546.3233791851</v>
       </c>
     </row>
     <row r="23">
@@ -23186,28 +23186,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>590.7641604746457</v>
+        <v>710.741501190662</v>
       </c>
       <c r="AB23" t="n">
-        <v>808.3095870367598</v>
+        <v>972.4678776311226</v>
       </c>
       <c r="AC23" t="n">
-        <v>731.1656545196015</v>
+        <v>879.6569082572461</v>
       </c>
       <c r="AD23" t="n">
-        <v>590764.1604746457</v>
+        <v>710741.501190662</v>
       </c>
       <c r="AE23" t="n">
-        <v>808309.5870367598</v>
+        <v>972467.8776311226</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.116714269927678e-06</v>
+        <v>1.615631503532336e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>731165.6545196015</v>
+        <v>879656.908257246</v>
       </c>
     </row>
     <row r="24">
@@ -23292,28 +23292,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>588.9489341918026</v>
+        <v>708.9262749078188</v>
       </c>
       <c r="AB24" t="n">
-        <v>805.8259143544421</v>
+        <v>969.9842049488049</v>
       </c>
       <c r="AC24" t="n">
-        <v>728.9190200722276</v>
+        <v>877.4102738098721</v>
       </c>
       <c r="AD24" t="n">
-        <v>588948.9341918025</v>
+        <v>708926.2749078188</v>
       </c>
       <c r="AE24" t="n">
-        <v>805825.9143544422</v>
+        <v>969984.2049488048</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.117231888155316e-06</v>
+        <v>1.616380379353033e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH24" t="n">
-        <v>728919.0200722276</v>
+        <v>877410.2738098721</v>
       </c>
     </row>
     <row r="25">
@@ -23398,28 +23398,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>589.232235535717</v>
+        <v>709.2095762517333</v>
       </c>
       <c r="AB25" t="n">
-        <v>806.2135397515591</v>
+        <v>970.3718303459218</v>
       </c>
       <c r="AC25" t="n">
-        <v>729.2696510454793</v>
+        <v>877.760904783124</v>
       </c>
       <c r="AD25" t="n">
-        <v>589232.235535717</v>
+        <v>709209.5762517333</v>
       </c>
       <c r="AE25" t="n">
-        <v>806213.5397515591</v>
+        <v>970371.8303459218</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.116996607142753e-06</v>
+        <v>1.616039981252716e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH25" t="n">
-        <v>729269.6510454793</v>
+        <v>877760.904783124</v>
       </c>
     </row>
     <row r="26">
@@ -23504,28 +23504,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>590.3785143281253</v>
+        <v>710.3558550441417</v>
       </c>
       <c r="AB26" t="n">
-        <v>807.7819289655835</v>
+        <v>971.9402195599461</v>
       </c>
       <c r="AC26" t="n">
-        <v>730.6883553941652</v>
+        <v>879.1796091318099</v>
       </c>
       <c r="AD26" t="n">
-        <v>590378.5143281253</v>
+        <v>710355.8550441416</v>
       </c>
       <c r="AE26" t="n">
-        <v>807781.9289655834</v>
+        <v>971940.2195599461</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.116996607142753e-06</v>
+        <v>1.616039981252716e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>28</v>
+        <v>27.421875</v>
       </c>
       <c r="AH26" t="n">
-        <v>730688.3553941653</v>
+        <v>879179.6091318099</v>
       </c>
     </row>
   </sheetData>
@@ -23801,28 +23801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>738.4716378467672</v>
+        <v>884.0256118437559</v>
       </c>
       <c r="AB2" t="n">
-        <v>1010.409473971294</v>
+        <v>1209.562842582108</v>
       </c>
       <c r="AC2" t="n">
-        <v>913.9774118940763</v>
+        <v>1094.123862518182</v>
       </c>
       <c r="AD2" t="n">
-        <v>738471.6378467672</v>
+        <v>884025.6118437559</v>
       </c>
       <c r="AE2" t="n">
-        <v>1010409.473971294</v>
+        <v>1209562.842582108</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.44387130024987e-07</v>
+        <v>1.418171622851016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.09114583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>913977.4118940764</v>
+        <v>1094123.862518182</v>
       </c>
     </row>
     <row r="3">
@@ -23907,28 +23907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>601.9685618592928</v>
+        <v>723.3204490112562</v>
       </c>
       <c r="AB3" t="n">
-        <v>823.6399433145372</v>
+        <v>989.6789489832717</v>
       </c>
       <c r="AC3" t="n">
-        <v>745.0329031105176</v>
+        <v>895.2253791154362</v>
       </c>
       <c r="AD3" t="n">
-        <v>601968.5618592928</v>
+        <v>723320.4490112562</v>
       </c>
       <c r="AE3" t="n">
-        <v>823639.9433145372</v>
+        <v>989678.9489832716</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093775520573115e-06</v>
+        <v>1.642505870452564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.29947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>745032.9031105177</v>
+        <v>895225.3791154362</v>
       </c>
     </row>
     <row r="4">
@@ -24013,28 +24013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>557.0796613948578</v>
+        <v>678.4314590382701</v>
       </c>
       <c r="AB4" t="n">
-        <v>762.2209693405752</v>
+        <v>928.2598525397613</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.4756698105593</v>
+        <v>839.6680350342511</v>
       </c>
       <c r="AD4" t="n">
-        <v>557079.6613948578</v>
+        <v>678431.4590382701</v>
       </c>
       <c r="AE4" t="n">
-        <v>762220.9693405752</v>
+        <v>928259.8525397612</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.145701285902504e-06</v>
+        <v>1.720481993319689e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>689475.6698105594</v>
+        <v>839668.0350342512</v>
       </c>
     </row>
     <row r="5">
@@ -24119,28 +24119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.883131713839</v>
+        <v>654.1392096326035</v>
       </c>
       <c r="AB5" t="n">
-        <v>740.0601628905456</v>
+        <v>895.0221252045212</v>
       </c>
       <c r="AC5" t="n">
-        <v>669.4298596252333</v>
+        <v>809.6024697464433</v>
       </c>
       <c r="AD5" t="n">
-        <v>540883.131713839</v>
+        <v>654139.2096326036</v>
       </c>
       <c r="AE5" t="n">
-        <v>740060.1628905456</v>
+        <v>895022.1252045212</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.174235003027133e-06</v>
+        <v>1.763330637306966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>669429.8596252333</v>
+        <v>809602.4697464432</v>
       </c>
     </row>
     <row r="6">
@@ -24225,28 +24225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>520.8387098667077</v>
+        <v>642.1051666555486</v>
       </c>
       <c r="AB6" t="n">
-        <v>712.6345006218194</v>
+        <v>878.5566166988078</v>
       </c>
       <c r="AC6" t="n">
-        <v>644.6216640712756</v>
+        <v>794.7084062630288</v>
       </c>
       <c r="AD6" t="n">
-        <v>520838.7098667078</v>
+        <v>642105.1666555486</v>
       </c>
       <c r="AE6" t="n">
-        <v>712634.5006218194</v>
+        <v>878556.6166988078</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.191696314309467e-06</v>
+        <v>1.789552019800519e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.8125</v>
       </c>
       <c r="AH6" t="n">
-        <v>644621.6640712756</v>
+        <v>794708.4062630287</v>
       </c>
     </row>
     <row r="7">
@@ -24331,28 +24331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>511.711122484612</v>
+        <v>625.0524517493972</v>
       </c>
       <c r="AB7" t="n">
-        <v>700.1457328849004</v>
+        <v>855.2243398515254</v>
       </c>
       <c r="AC7" t="n">
-        <v>633.3248067990727</v>
+        <v>773.6029291709948</v>
       </c>
       <c r="AD7" t="n">
-        <v>511711.122484612</v>
+        <v>625052.4517493972</v>
       </c>
       <c r="AE7" t="n">
-        <v>700145.7328849004</v>
+        <v>855224.3398515254</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.203786872413123e-06</v>
+        <v>1.807708224879875e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.52604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>633324.8067990727</v>
+        <v>773602.9291709948</v>
       </c>
     </row>
     <row r="8">
@@ -24437,28 +24437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>501.8502264632319</v>
+        <v>615.0209635274249</v>
       </c>
       <c r="AB8" t="n">
-        <v>686.6536199164187</v>
+        <v>841.4988151081966</v>
       </c>
       <c r="AC8" t="n">
-        <v>621.1203621560032</v>
+        <v>761.1873492452743</v>
       </c>
       <c r="AD8" t="n">
-        <v>501850.2264632319</v>
+        <v>615020.9635274248</v>
       </c>
       <c r="AE8" t="n">
-        <v>686653.6199164187</v>
+        <v>841498.8151081966</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.21149937579293e-06</v>
+        <v>1.819289972541021e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>621120.3621560032</v>
+        <v>761187.3492452743</v>
       </c>
     </row>
     <row r="9">
@@ -24543,28 +24543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>495.8447226870766</v>
+        <v>609.0154597512695</v>
       </c>
       <c r="AB9" t="n">
-        <v>678.4366247057554</v>
+        <v>833.2818198975332</v>
       </c>
       <c r="AC9" t="n">
-        <v>613.6875854356203</v>
+        <v>753.7545725248914</v>
       </c>
       <c r="AD9" t="n">
-        <v>495844.7226870766</v>
+        <v>609015.4597512695</v>
       </c>
       <c r="AE9" t="n">
-        <v>678436.6247057554</v>
+        <v>833281.8198975332</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.218931887300862e-06</v>
+        <v>1.830451260716119e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>613687.5854356204</v>
+        <v>753754.5725248914</v>
       </c>
     </row>
     <row r="10">
@@ -24649,28 +24649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>489.1696231991883</v>
+        <v>602.3403602633812</v>
       </c>
       <c r="AB10" t="n">
-        <v>669.3034591018209</v>
+        <v>824.1486542935986</v>
       </c>
       <c r="AC10" t="n">
-        <v>605.4260763384469</v>
+        <v>745.4930634277179</v>
       </c>
       <c r="AD10" t="n">
-        <v>489169.6231991883</v>
+        <v>602340.3602633812</v>
       </c>
       <c r="AE10" t="n">
-        <v>669303.4591018208</v>
+        <v>824148.6542935986</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22361538770312e-06</v>
+        <v>1.837484401210017e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>605426.0763384469</v>
+        <v>745493.0634277179</v>
       </c>
     </row>
     <row r="11">
@@ -24755,28 +24755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>485.078272952082</v>
+        <v>590.3238824922194</v>
       </c>
       <c r="AB11" t="n">
-        <v>663.7054931960961</v>
+        <v>807.7071792775104</v>
       </c>
       <c r="AC11" t="n">
-        <v>600.36237244197</v>
+        <v>730.6207397114099</v>
       </c>
       <c r="AD11" t="n">
-        <v>485078.272952082</v>
+        <v>590323.8824922193</v>
       </c>
       <c r="AE11" t="n">
-        <v>663705.493196096</v>
+        <v>807707.1792775104</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.226797113519872e-06</v>
+        <v>1.84226234991511e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>600362.37244197</v>
+        <v>730620.7397114099</v>
       </c>
     </row>
     <row r="12">
@@ -24861,28 +24861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>487.0732454067351</v>
+        <v>592.3188549468724</v>
       </c>
       <c r="AB12" t="n">
-        <v>666.4351025205254</v>
+        <v>810.4367886019398</v>
       </c>
       <c r="AC12" t="n">
-        <v>602.8314716835066</v>
+        <v>733.0898389529465</v>
       </c>
       <c r="AD12" t="n">
-        <v>487073.2454067351</v>
+        <v>592318.8549468725</v>
       </c>
       <c r="AE12" t="n">
-        <v>666435.1025205255</v>
+        <v>810436.7886019398</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.226237129776124e-06</v>
+        <v>1.841421430943014e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH12" t="n">
-        <v>602831.4716835066</v>
+        <v>733089.8389529465</v>
       </c>
     </row>
   </sheetData>
@@ -25158,28 +25158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>602.0125333892183</v>
+        <v>735.3458641994218</v>
       </c>
       <c r="AB2" t="n">
-        <v>823.7001071016679</v>
+        <v>1006.132652567595</v>
       </c>
       <c r="AC2" t="n">
-        <v>745.0873249502453</v>
+        <v>910.1087643225901</v>
       </c>
       <c r="AD2" t="n">
-        <v>602012.5333892184</v>
+        <v>735345.8641994218</v>
       </c>
       <c r="AE2" t="n">
-        <v>823700.1071016679</v>
+        <v>1006132.652567595</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.062512705092367e-06</v>
+        <v>1.629625407080948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.48697916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>745087.3249502452</v>
+        <v>910108.7643225901</v>
       </c>
     </row>
     <row r="3">
@@ -25264,28 +25264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.5729320837087</v>
+        <v>625.5877094813858</v>
       </c>
       <c r="AB3" t="n">
-        <v>705.4296311493998</v>
+        <v>855.9567030943369</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.1044172292059</v>
+        <v>774.2653966937905</v>
       </c>
       <c r="AD3" t="n">
-        <v>515572.9320837087</v>
+        <v>625587.7094813858</v>
       </c>
       <c r="AE3" t="n">
-        <v>705429.6311493998</v>
+        <v>855956.7030943369</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.189437275732878e-06</v>
+        <v>1.824295554654039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>638104.4172292058</v>
+        <v>774265.3966937906</v>
       </c>
     </row>
     <row r="4">
@@ -25370,28 +25370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.7730116704724</v>
+        <v>595.4752098425358</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.7101124252158</v>
+        <v>814.7554526187367</v>
       </c>
       <c r="AC4" t="n">
-        <v>591.3209367832575</v>
+        <v>736.9963357372635</v>
       </c>
       <c r="AD4" t="n">
-        <v>477773.0116704724</v>
+        <v>595475.2098425358</v>
       </c>
       <c r="AE4" t="n">
-        <v>653710.1124252158</v>
+        <v>814755.4526187368</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.234379232539994e-06</v>
+        <v>1.893225134795336e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>591320.9367832575</v>
+        <v>736996.3357372636</v>
       </c>
     </row>
     <row r="5">
@@ -25476,28 +25476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>463.5957345564294</v>
+        <v>573.4398302449633</v>
       </c>
       <c r="AB5" t="n">
-        <v>634.3121364204582</v>
+        <v>784.6056741209999</v>
       </c>
       <c r="AC5" t="n">
-        <v>573.7742763831639</v>
+        <v>709.7240097838708</v>
       </c>
       <c r="AD5" t="n">
-        <v>463595.7345564294</v>
+        <v>573439.8302449633</v>
       </c>
       <c r="AE5" t="n">
-        <v>634312.1364204582</v>
+        <v>784605.6741209999</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257128612445897e-06</v>
+        <v>1.92811692226509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.4609375</v>
       </c>
       <c r="AH5" t="n">
-        <v>573774.2763831639</v>
+        <v>709724.0097838708</v>
       </c>
     </row>
     <row r="6">
@@ -25582,28 +25582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>452.8649529117277</v>
+        <v>562.7090486002617</v>
       </c>
       <c r="AB6" t="n">
-        <v>619.6298075655028</v>
+        <v>769.9233452660444</v>
       </c>
       <c r="AC6" t="n">
-        <v>560.4932083873473</v>
+        <v>696.4429417880543</v>
       </c>
       <c r="AD6" t="n">
-        <v>452864.9529117277</v>
+        <v>562709.0486002617</v>
       </c>
       <c r="AE6" t="n">
-        <v>619629.8075655028</v>
+        <v>769923.3452660444</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.271658519425425e-06</v>
+        <v>1.950402119856495e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.1484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>560493.2083873473</v>
+        <v>696442.9417880543</v>
       </c>
     </row>
     <row r="7">
@@ -25688,28 +25688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>445.4476572041463</v>
+        <v>547.604242609743</v>
       </c>
       <c r="AB7" t="n">
-        <v>609.4811363503978</v>
+        <v>749.2562833328072</v>
       </c>
       <c r="AC7" t="n">
-        <v>551.3131121092625</v>
+        <v>677.7483152393216</v>
       </c>
       <c r="AD7" t="n">
-        <v>445447.6572041463</v>
+        <v>547604.242609743</v>
       </c>
       <c r="AE7" t="n">
-        <v>609481.1363503978</v>
+        <v>749256.2833328072</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.277279578329914e-06</v>
+        <v>1.959023400676528e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH7" t="n">
-        <v>551313.1121092625</v>
+        <v>677748.3152393217</v>
       </c>
     </row>
     <row r="8">
@@ -25794,28 +25794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>437.0293558001562</v>
+        <v>546.9587028347108</v>
       </c>
       <c r="AB8" t="n">
-        <v>597.9628449802121</v>
+        <v>748.373027333403</v>
       </c>
       <c r="AC8" t="n">
-        <v>540.8941103014238</v>
+        <v>676.9493559528431</v>
       </c>
       <c r="AD8" t="n">
-        <v>437029.3558001562</v>
+        <v>546958.7028347108</v>
       </c>
       <c r="AE8" t="n">
-        <v>597962.8449802122</v>
+        <v>748373.027333403</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.280063593353363e-06</v>
+        <v>1.963293374667582e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>27</v>
+        <v>26.96614583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>540894.1103014238</v>
+        <v>676949.3559528431</v>
       </c>
     </row>
   </sheetData>
@@ -48400,28 +48400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>511.1366854895449</v>
+        <v>633.7435060764358</v>
       </c>
       <c r="AB2" t="n">
-        <v>699.3597628458778</v>
+        <v>867.115823804036</v>
       </c>
       <c r="AC2" t="n">
-        <v>632.6138486374584</v>
+        <v>784.3595065848803</v>
       </c>
       <c r="AD2" t="n">
-        <v>511136.6854895449</v>
+        <v>633743.5060764358</v>
       </c>
       <c r="AE2" t="n">
-        <v>699359.7628458778</v>
+        <v>867115.823804036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159955680391649e-06</v>
+        <v>1.812407870062133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>632613.8486374584</v>
+        <v>784359.5065848803</v>
       </c>
     </row>
     <row r="3">
@@ -48506,28 +48506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>451.3659448680141</v>
+        <v>558.6363347832732</v>
       </c>
       <c r="AB3" t="n">
-        <v>617.5787986285263</v>
+        <v>764.3508785461884</v>
       </c>
       <c r="AC3" t="n">
-        <v>558.6379448647066</v>
+        <v>691.402303470935</v>
       </c>
       <c r="AD3" t="n">
-        <v>451365.9448680141</v>
+        <v>558636.3347832733</v>
       </c>
       <c r="AE3" t="n">
-        <v>617578.7986285263</v>
+        <v>764350.8785461884</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.266540716782417e-06</v>
+        <v>1.978944886993902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>558637.9448647066</v>
+        <v>691402.303470935</v>
       </c>
     </row>
     <row r="4">
@@ -48612,28 +48612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.4822893130607</v>
+        <v>530.6673383737482</v>
       </c>
       <c r="AB4" t="n">
-        <v>579.4271509581749</v>
+        <v>726.0824637536392</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.1274369018399</v>
+        <v>656.7861724761294</v>
       </c>
       <c r="AD4" t="n">
-        <v>423482.2893130607</v>
+        <v>530667.3383737482</v>
       </c>
       <c r="AE4" t="n">
-        <v>579427.150958175</v>
+        <v>726082.4637536393</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.3057352656765e-06</v>
+        <v>2.040185596514103e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>524127.4369018399</v>
+        <v>656786.1724761294</v>
       </c>
     </row>
     <row r="5">
@@ -48718,28 +48718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.0420187363044</v>
+        <v>512.7294894160437</v>
       </c>
       <c r="AB5" t="n">
-        <v>565.1423121628261</v>
+        <v>701.5391074476636</v>
       </c>
       <c r="AC5" t="n">
-        <v>511.2059230722219</v>
+        <v>634.585199649179</v>
       </c>
       <c r="AD5" t="n">
-        <v>413042.0187363044</v>
+        <v>512729.4894160438</v>
       </c>
       <c r="AE5" t="n">
-        <v>565142.3121628261</v>
+        <v>701539.1074476636</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319915518845318e-06</v>
+        <v>2.062341962379703e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.05729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>511205.9230722219</v>
+        <v>634585.199649179</v>
       </c>
     </row>
     <row r="6">
@@ -48824,28 +48824,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>413.6166449209874</v>
+        <v>513.3041156007267</v>
       </c>
       <c r="AB6" t="n">
-        <v>565.9285410594274</v>
+        <v>702.3253363442649</v>
       </c>
       <c r="AC6" t="n">
-        <v>511.9171153864108</v>
+        <v>635.2963919633678</v>
       </c>
       <c r="AD6" t="n">
-        <v>413616.6449209874</v>
+        <v>513304.1156007267</v>
       </c>
       <c r="AE6" t="n">
-        <v>565928.5410594274</v>
+        <v>702325.3363442649</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321890331665733e-06</v>
+        <v>2.065427568457698e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>511917.1153864108</v>
+        <v>635296.3919633678</v>
       </c>
     </row>
   </sheetData>
@@ -49121,28 +49121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>369.2449527386033</v>
+        <v>471.2442876208885</v>
       </c>
       <c r="AB2" t="n">
-        <v>505.2172342745869</v>
+        <v>644.7772241535978</v>
       </c>
       <c r="AC2" t="n">
-        <v>457.0000105122612</v>
+        <v>583.2405908308955</v>
       </c>
       <c r="AD2" t="n">
-        <v>369244.9527386033</v>
+        <v>471244.2876208886</v>
       </c>
       <c r="AE2" t="n">
-        <v>505217.2342745869</v>
+        <v>644777.2241535978</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.357176657242632e-06</v>
+        <v>2.211758406702819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>457000.0105122612</v>
+        <v>583240.5908308955</v>
       </c>
     </row>
     <row r="3">
@@ -49227,28 +49227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.3854190285987</v>
+        <v>453.4700052569044</v>
       </c>
       <c r="AB3" t="n">
-        <v>480.7810323455388</v>
+        <v>620.4576668771991</v>
       </c>
       <c r="AC3" t="n">
-        <v>434.8959653988967</v>
+        <v>561.2420579682432</v>
       </c>
       <c r="AD3" t="n">
-        <v>351385.4190285987</v>
+        <v>453470.0052569044</v>
       </c>
       <c r="AE3" t="n">
-        <v>480781.0323455388</v>
+        <v>620457.6668771991</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39150202235358e-06</v>
+        <v>2.267697634983924e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>434895.9653988967</v>
+        <v>561242.0579682433</v>
       </c>
     </row>
   </sheetData>
@@ -49524,28 +49524,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>876.0902943028066</v>
+        <v>1041.863525378087</v>
       </c>
       <c r="AB2" t="n">
-        <v>1198.705391041078</v>
+        <v>1425.523639197079</v>
       </c>
       <c r="AC2" t="n">
-        <v>1084.3026309137</v>
+        <v>1289.473663807102</v>
       </c>
       <c r="AD2" t="n">
-        <v>876090.2943028066</v>
+        <v>1041863.525378087</v>
       </c>
       <c r="AE2" t="n">
-        <v>1198705.391041078</v>
+        <v>1425523.639197079</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.442647709197622e-07</v>
+        <v>1.247300566699129e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1084302.6309137</v>
+        <v>1289473.663807102</v>
       </c>
     </row>
     <row r="3">
@@ -49630,28 +49630,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>685.4634800687506</v>
+        <v>818.2186102962899</v>
       </c>
       <c r="AB3" t="n">
-        <v>937.8813739445376</v>
+        <v>1119.522799864854</v>
       </c>
       <c r="AC3" t="n">
-        <v>848.371291940046</v>
+        <v>1012.67711510587</v>
       </c>
       <c r="AD3" t="n">
-        <v>685463.4800687507</v>
+        <v>818218.6102962899</v>
       </c>
       <c r="AE3" t="n">
-        <v>937881.3739445376</v>
+        <v>1119522.799864854</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.013669194233525e-06</v>
+        <v>1.49757540994576e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.62760416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>848371.291940046</v>
+        <v>1012677.11510587</v>
       </c>
     </row>
     <row r="4">
@@ -49736,28 +49736,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>630.6254560078414</v>
+        <v>763.2099045262372</v>
       </c>
       <c r="AB4" t="n">
-        <v>862.8495701415245</v>
+        <v>1044.257461817446</v>
       </c>
       <c r="AC4" t="n">
-        <v>780.5004181841942</v>
+        <v>944.5949952861405</v>
       </c>
       <c r="AD4" t="n">
-        <v>630625.4560078414</v>
+        <v>763209.9045262372</v>
       </c>
       <c r="AE4" t="n">
-        <v>862849.5701415245</v>
+        <v>1044257.461817445</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.074232321882393e-06</v>
+        <v>1.587050212210941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>780500.4181841942</v>
+        <v>944594.9952861405</v>
       </c>
     </row>
     <row r="5">
@@ -49842,28 +49842,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>601.9586727415495</v>
+        <v>726.3312664752959</v>
       </c>
       <c r="AB5" t="n">
-        <v>823.6264125873636</v>
+        <v>993.7984822654624</v>
       </c>
       <c r="AC5" t="n">
-        <v>745.0206637369552</v>
+        <v>898.9517499229761</v>
       </c>
       <c r="AD5" t="n">
-        <v>601958.6727415496</v>
+        <v>726331.2664752959</v>
       </c>
       <c r="AE5" t="n">
-        <v>823626.4125873636</v>
+        <v>993798.4822654624</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.107763614507498e-06</v>
+        <v>1.636588700294346e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>745020.6637369551</v>
+        <v>898951.7499229761</v>
       </c>
     </row>
     <row r="6">
@@ -49948,28 +49948,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.588331552572</v>
+        <v>712.790333085726</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.3325219147813</v>
+        <v>975.271179818033</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.4727163145272</v>
+        <v>882.1926672178971</v>
       </c>
       <c r="AD6" t="n">
-        <v>588588.331552572</v>
+        <v>712790.333085726</v>
       </c>
       <c r="AE6" t="n">
-        <v>805332.5219147813</v>
+        <v>975271.179818033</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.128000562038948e-06</v>
+        <v>1.666486378124419e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.42447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>728472.7163145272</v>
+        <v>882192.6672178971</v>
       </c>
     </row>
     <row r="7">
@@ -50054,28 +50054,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>579.812013642922</v>
+        <v>695.8875012459984</v>
       </c>
       <c r="AB7" t="n">
-        <v>793.3243765669781</v>
+        <v>952.1439795946058</v>
       </c>
       <c r="AC7" t="n">
-        <v>717.6106115051808</v>
+        <v>861.2726945245643</v>
       </c>
       <c r="AD7" t="n">
-        <v>579812.013642922</v>
+        <v>695887.5012459983</v>
       </c>
       <c r="AE7" t="n">
-        <v>793324.3765669782</v>
+        <v>952143.9795946057</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140433236617273e-06</v>
+        <v>1.684854172898368e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.11197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>717610.6115051808</v>
+        <v>861272.6945245643</v>
       </c>
     </row>
     <row r="8">
@@ -50160,28 +50160,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>562.3424418853635</v>
+        <v>686.6296947645382</v>
       </c>
       <c r="AB8" t="n">
-        <v>769.4217377851741</v>
+        <v>939.4770403410753</v>
       </c>
       <c r="AC8" t="n">
-        <v>695.9892070211478</v>
+        <v>849.8146701752299</v>
       </c>
       <c r="AD8" t="n">
-        <v>562342.4418853635</v>
+        <v>686629.6947645382</v>
       </c>
       <c r="AE8" t="n">
-        <v>769421.737785174</v>
+        <v>939477.0403410753</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.151265665952843e-06</v>
+        <v>1.700857796067751e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.83854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>695989.2070211477</v>
+        <v>849814.6701752299</v>
       </c>
     </row>
     <row r="9">
@@ -50266,28 +50266,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>556.1593991441963</v>
+        <v>672.3201380932931</v>
       </c>
       <c r="AB9" t="n">
-        <v>760.961825930115</v>
+        <v>919.8980736103917</v>
       </c>
       <c r="AC9" t="n">
-        <v>688.3366972799746</v>
+        <v>832.1042925500705</v>
       </c>
       <c r="AD9" t="n">
-        <v>556159.3991441963</v>
+        <v>672320.1380932931</v>
       </c>
       <c r="AE9" t="n">
-        <v>760961.825930115</v>
+        <v>919898.0736103917</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.158060553445154e-06</v>
+        <v>1.710896432419454e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.68229166666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>688336.6972799746</v>
+        <v>832104.2925500704</v>
       </c>
     </row>
     <row r="10">
@@ -50372,28 +50372,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>550.1010000931446</v>
+        <v>666.2617390422414</v>
       </c>
       <c r="AB10" t="n">
-        <v>752.6724570707635</v>
+        <v>911.6087047510401</v>
       </c>
       <c r="AC10" t="n">
-        <v>680.8384541503572</v>
+        <v>824.6060494204531</v>
       </c>
       <c r="AD10" t="n">
-        <v>550101.0000931446</v>
+        <v>666261.7390422414</v>
       </c>
       <c r="AE10" t="n">
-        <v>752672.4570707635</v>
+        <v>911608.7047510401</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.164510772731335e-06</v>
+        <v>1.720425862579404e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.52604166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>680838.4541503572</v>
+        <v>824606.0494204531</v>
       </c>
     </row>
     <row r="11">
@@ -50478,28 +50478,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>543.6177473137944</v>
+        <v>659.607894062299</v>
       </c>
       <c r="AB11" t="n">
-        <v>743.8017845971302</v>
+        <v>902.5046205025602</v>
       </c>
       <c r="AC11" t="n">
-        <v>672.8143862075408</v>
+        <v>816.3708461949853</v>
       </c>
       <c r="AD11" t="n">
-        <v>543617.7473137944</v>
+        <v>659607.894062299</v>
       </c>
       <c r="AE11" t="n">
-        <v>743801.7845971303</v>
+        <v>902504.6205025602</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.169533080877826e-06</v>
+        <v>1.727845724230663e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.40885416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>672814.3862075408</v>
+        <v>816370.8461949853</v>
       </c>
     </row>
     <row r="12">
@@ -50584,28 +50584,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>540.2176858242759</v>
+        <v>656.2078325727806</v>
       </c>
       <c r="AB12" t="n">
-        <v>739.1496704670446</v>
+        <v>897.8525063724745</v>
       </c>
       <c r="AC12" t="n">
-        <v>668.6062633207473</v>
+        <v>812.162723308192</v>
       </c>
       <c r="AD12" t="n">
-        <v>540217.6858242759</v>
+        <v>656207.8325727805</v>
       </c>
       <c r="AE12" t="n">
-        <v>739149.6704670447</v>
+        <v>897852.5063724745</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.171650328429779e-06</v>
+        <v>1.73097370512286e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>668606.2633207473</v>
+        <v>812162.723308192</v>
       </c>
     </row>
     <row r="13">
@@ -50690,28 +50690,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>534.2745345209248</v>
+        <v>650.2646812694294</v>
       </c>
       <c r="AB13" t="n">
-        <v>731.0179886604689</v>
+        <v>889.7208245658986</v>
       </c>
       <c r="AC13" t="n">
-        <v>661.2506578129039</v>
+        <v>804.8071178003487</v>
       </c>
       <c r="AD13" t="n">
-        <v>534274.5345209248</v>
+        <v>650264.6812694294</v>
       </c>
       <c r="AE13" t="n">
-        <v>731017.9886604688</v>
+        <v>889720.8245658986</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.174727723127384e-06</v>
+        <v>1.735520188977798e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.29166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>661250.6578129039</v>
+        <v>804807.1178003487</v>
       </c>
     </row>
     <row r="14">
@@ -50796,28 +50796,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>529.2248952113239</v>
+        <v>645.2150419598285</v>
       </c>
       <c r="AB14" t="n">
-        <v>724.108849382709</v>
+        <v>882.8116852881388</v>
       </c>
       <c r="AC14" t="n">
-        <v>655.0009170907757</v>
+        <v>798.5573770782204</v>
       </c>
       <c r="AD14" t="n">
-        <v>529224.8952113239</v>
+        <v>645215.0419598285</v>
       </c>
       <c r="AE14" t="n">
-        <v>724108.849382709</v>
+        <v>882811.6852881388</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.177288115515791e-06</v>
+        <v>1.739302863545107e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH14" t="n">
-        <v>655000.9170907757</v>
+        <v>798557.3770782204</v>
       </c>
     </row>
     <row r="15">
@@ -50902,28 +50902,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>524.7955952139945</v>
+        <v>640.7857419624992</v>
       </c>
       <c r="AB15" t="n">
-        <v>718.0484857194384</v>
+        <v>876.7513216248682</v>
       </c>
       <c r="AC15" t="n">
-        <v>649.5189460297538</v>
+        <v>793.0754060171985</v>
       </c>
       <c r="AD15" t="n">
-        <v>524795.5952139945</v>
+        <v>640785.7419624992</v>
       </c>
       <c r="AE15" t="n">
-        <v>718048.4857194384</v>
+        <v>876751.3216248682</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.1804886060013e-06</v>
+        <v>1.744031206754242e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>649518.9460297538</v>
+        <v>793075.4060171985</v>
       </c>
     </row>
     <row r="16">
@@ -51008,28 +51008,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>525.6678037886928</v>
+        <v>641.6579505371974</v>
       </c>
       <c r="AB16" t="n">
-        <v>719.2418799704672</v>
+        <v>877.9447158758969</v>
       </c>
       <c r="AC16" t="n">
-        <v>650.5984444084036</v>
+        <v>794.1549043958482</v>
       </c>
       <c r="AD16" t="n">
-        <v>525667.8037886928</v>
+        <v>641657.9505371974</v>
       </c>
       <c r="AE16" t="n">
-        <v>719241.8799704672</v>
+        <v>877944.715875897</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.180217795267911e-06</v>
+        <v>1.743631116175008e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.16145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>650598.4444084036</v>
+        <v>794154.9043958483</v>
       </c>
     </row>
   </sheetData>
@@ -51305,28 +51305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1101.396059693495</v>
+        <v>1288.777749133878</v>
       </c>
       <c r="AB2" t="n">
-        <v>1506.978679037473</v>
+        <v>1763.362573226508</v>
       </c>
       <c r="AC2" t="n">
-        <v>1363.154748967996</v>
+        <v>1595.069724132685</v>
       </c>
       <c r="AD2" t="n">
-        <v>1101396.059693495</v>
+        <v>1288777.749133878</v>
       </c>
       <c r="AE2" t="n">
-        <v>1506978.679037473</v>
+        <v>1763362.573226508</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.309066672033267e-07</v>
+        <v>1.061400015429193e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1363154.748967996</v>
+        <v>1595069.724132685</v>
       </c>
     </row>
     <row r="3">
@@ -51411,28 +51411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>807.0776740011236</v>
+        <v>952.0703822931364</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.279279322387</v>
+        <v>1302.664699434357</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.88841476956</v>
+        <v>1178.34020882173</v>
       </c>
       <c r="AD3" t="n">
-        <v>807077.6740011235</v>
+        <v>952070.3822931364</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104279.279322387</v>
+        <v>1302664.699434357</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.198904872215582e-07</v>
+        <v>1.335836463314841e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.58072916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>998888.41476956</v>
+        <v>1178340.20882173</v>
       </c>
     </row>
     <row r="4">
@@ -51517,28 +51517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>734.3067608886761</v>
+        <v>870.5998941393902</v>
       </c>
       <c r="AB4" t="n">
-        <v>1004.71090557583</v>
+        <v>1191.193183318132</v>
       </c>
       <c r="AC4" t="n">
-        <v>908.8227068682849</v>
+        <v>1077.507377752382</v>
       </c>
       <c r="AD4" t="n">
-        <v>734306.760888676</v>
+        <v>870599.8941393902</v>
       </c>
       <c r="AE4" t="n">
-        <v>1004710.90557583</v>
+        <v>1191193.183318132</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.908721077958176e-07</v>
+        <v>1.438913773391901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>908822.7068682848</v>
+        <v>1077507.377752382</v>
       </c>
     </row>
     <row r="5">
@@ -51623,28 +51623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>699.8588096662492</v>
+        <v>827.7083009308283</v>
       </c>
       <c r="AB5" t="n">
-        <v>957.5776989769554</v>
+        <v>1132.507013246633</v>
       </c>
       <c r="AC5" t="n">
-        <v>866.1878273553357</v>
+        <v>1024.42213338595</v>
       </c>
       <c r="AD5" t="n">
-        <v>699858.8096662492</v>
+        <v>827708.3009308283</v>
       </c>
       <c r="AE5" t="n">
-        <v>957577.6989769554</v>
+        <v>1132507.013246633</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.027928689125026e-06</v>
+        <v>1.492726192623307e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>866187.8273553357</v>
+        <v>1024422.13338595</v>
       </c>
     </row>
     <row r="6">
@@ -51729,28 +51729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>674.4067983659584</v>
+        <v>802.1709487759658</v>
       </c>
       <c r="AB6" t="n">
-        <v>922.7531342524069</v>
+        <v>1097.565681399887</v>
       </c>
       <c r="AC6" t="n">
-        <v>834.6868702115142</v>
+        <v>992.8155532101896</v>
       </c>
       <c r="AD6" t="n">
-        <v>674406.7983659584</v>
+        <v>802170.9487759658</v>
       </c>
       <c r="AE6" t="n">
-        <v>922753.1342524069</v>
+        <v>1097565.681399887</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.051486426167219e-06</v>
+        <v>1.52693600843431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>834686.8702115143</v>
+        <v>992815.5532101896</v>
       </c>
     </row>
     <row r="7">
@@ -51835,28 +51835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>653.3108589888914</v>
+        <v>781.1602607449195</v>
       </c>
       <c r="AB7" t="n">
-        <v>893.8887393095431</v>
+        <v>1068.817931109672</v>
       </c>
       <c r="AC7" t="n">
-        <v>808.5772526105645</v>
+        <v>966.8114478599522</v>
       </c>
       <c r="AD7" t="n">
-        <v>653310.8589888914</v>
+        <v>781160.2607449194</v>
       </c>
       <c r="AE7" t="n">
-        <v>893888.739309543</v>
+        <v>1068817.931109672</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.069635135973137e-06</v>
+        <v>1.553291002488104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.88020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>808577.2526105646</v>
+        <v>966811.4478599522</v>
       </c>
     </row>
     <row r="8">
@@ -51941,28 +51941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>644.9585699432762</v>
+        <v>772.8079716993042</v>
       </c>
       <c r="AB8" t="n">
-        <v>882.4607689603453</v>
+        <v>1057.389960760475</v>
       </c>
       <c r="AC8" t="n">
-        <v>798.2399517122373</v>
+        <v>956.4741469616248</v>
       </c>
       <c r="AD8" t="n">
-        <v>644958.5699432762</v>
+        <v>772807.9716993042</v>
       </c>
       <c r="AE8" t="n">
-        <v>882460.7689603453</v>
+        <v>1057389.960760475</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.080903942715374e-06</v>
+        <v>1.569655214482289e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>28.58072916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>798239.9517122372</v>
+        <v>956474.1469616249</v>
       </c>
     </row>
     <row r="9">
@@ -52047,28 +52047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>638.0621794854545</v>
+        <v>757.3826879093269</v>
       </c>
       <c r="AB9" t="n">
-        <v>873.0248232886796</v>
+        <v>1036.284406963535</v>
       </c>
       <c r="AC9" t="n">
-        <v>789.7045594520422</v>
+        <v>937.3828775972347</v>
       </c>
       <c r="AD9" t="n">
-        <v>638062.1794854546</v>
+        <v>757382.687909327</v>
       </c>
       <c r="AE9" t="n">
-        <v>873024.8232886796</v>
+        <v>1036284.406963535</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.088875140747778e-06</v>
+        <v>1.581230741282387e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>28.37239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>789704.5594520422</v>
+        <v>937382.8775972347</v>
       </c>
     </row>
     <row r="10">
@@ -52153,28 +52153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>631.0324814341849</v>
+        <v>750.3529898580573</v>
       </c>
       <c r="AB10" t="n">
-        <v>863.4064802865423</v>
+        <v>1026.666063961398</v>
       </c>
       <c r="AC10" t="n">
-        <v>781.0041776065998</v>
+        <v>928.6824957517923</v>
       </c>
       <c r="AD10" t="n">
-        <v>631032.4814341849</v>
+        <v>750352.9898580573</v>
       </c>
       <c r="AE10" t="n">
-        <v>863406.4802865423</v>
+        <v>1026666.063961398</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.097486881479214e-06</v>
+        <v>1.593736444343207e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>28.15104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>781004.1776065998</v>
+        <v>928682.4957517923</v>
       </c>
     </row>
     <row r="11">
@@ -52259,28 +52259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>624.6502312956404</v>
+        <v>743.9707397195128</v>
       </c>
       <c r="AB11" t="n">
-        <v>854.6740040819815</v>
+        <v>1017.933587756837</v>
       </c>
       <c r="AC11" t="n">
-        <v>773.1051166748949</v>
+        <v>920.7834348200875</v>
       </c>
       <c r="AD11" t="n">
-        <v>624650.2312956405</v>
+        <v>743970.7397195129</v>
       </c>
       <c r="AE11" t="n">
-        <v>854674.0040819815</v>
+        <v>1017933.587756837</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.102967080126491e-06</v>
+        <v>1.601694619018274e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28.0078125</v>
       </c>
       <c r="AH11" t="n">
-        <v>773105.1166748949</v>
+        <v>920783.4348200874</v>
       </c>
     </row>
     <row r="12">
@@ -52365,28 +52365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>613.2739788416808</v>
+        <v>741.0380397431371</v>
       </c>
       <c r="AB12" t="n">
-        <v>839.1085135896366</v>
+        <v>1013.920938267568</v>
       </c>
       <c r="AC12" t="n">
-        <v>759.0251747488364</v>
+        <v>917.1537469662854</v>
       </c>
       <c r="AD12" t="n">
-        <v>613273.9788416808</v>
+        <v>741038.0397431371</v>
       </c>
       <c r="AE12" t="n">
-        <v>839108.5135896365</v>
+        <v>1013920.938267568</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.105908831781306e-06</v>
+        <v>1.605966539623072e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.9296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>759025.1747488364</v>
+        <v>917153.7469662854</v>
       </c>
     </row>
     <row r="13">
@@ -52471,28 +52471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>607.0775950557278</v>
+        <v>734.841655957184</v>
       </c>
       <c r="AB13" t="n">
-        <v>830.6303479285361</v>
+        <v>1005.442772606468</v>
       </c>
       <c r="AC13" t="n">
-        <v>751.3561533192512</v>
+        <v>909.4847255367001</v>
       </c>
       <c r="AD13" t="n">
-        <v>607077.5950557278</v>
+        <v>734841.655957184</v>
       </c>
       <c r="AE13" t="n">
-        <v>830630.3479285361</v>
+        <v>1005442.772606468</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.111744887483602e-06</v>
+        <v>1.614441478887429e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.78645833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>751356.1533192513</v>
+        <v>909484.7255367001</v>
       </c>
     </row>
     <row r="14">
@@ -52577,28 +52577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>603.6117091709748</v>
+        <v>731.3757700724312</v>
       </c>
       <c r="AB14" t="n">
-        <v>825.8881699569235</v>
+        <v>1000.700594634855</v>
       </c>
       <c r="AC14" t="n">
-        <v>747.0665621575606</v>
+        <v>905.1951343750095</v>
       </c>
       <c r="AD14" t="n">
-        <v>603611.7091709748</v>
+        <v>731375.7700724312</v>
       </c>
       <c r="AE14" t="n">
-        <v>825888.1699569236</v>
+        <v>1000700.594634855</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.114568020120078e-06</v>
+        <v>1.618541144629131e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>28</v>
+        <v>27.72135416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>747066.5621575606</v>
+        <v>905195.1343750095</v>
       </c>
     </row>
     <row r="15">
@@ -52683,28 +52683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>598.616849094241</v>
+        <v>718.0226088641341</v>
       </c>
       <c r="AB15" t="n">
-        <v>819.0539820422619</v>
+        <v>982.430210369767</v>
       </c>
       <c r="AC15" t="n">
-        <v>740.8846195456314</v>
+        <v>888.6684499415361</v>
       </c>
       <c r="AD15" t="n">
-        <v>598616.849094241</v>
+        <v>718022.6088641341</v>
       </c>
       <c r="AE15" t="n">
-        <v>819053.9820422619</v>
+        <v>982430.210369767</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.118174038277594e-06</v>
+        <v>1.62377769246727e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>28</v>
+        <v>27.63020833333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>740884.6195456313</v>
+        <v>888668.4499415361</v>
       </c>
     </row>
     <row r="16">
@@ -52789,28 +52789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>593.6667365361973</v>
+        <v>713.0724963060902</v>
       </c>
       <c r="AB16" t="n">
-        <v>812.281019656793</v>
+        <v>975.6572479842981</v>
       </c>
       <c r="AC16" t="n">
-        <v>734.7580591843193</v>
+        <v>882.5418895802239</v>
       </c>
       <c r="AD16" t="n">
-        <v>593666.7365361972</v>
+        <v>713072.4963060903</v>
       </c>
       <c r="AE16" t="n">
-        <v>812281.019656793</v>
+        <v>975657.2479842982</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.121234408950749e-06</v>
+        <v>1.628221867935165e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>734758.0591843193</v>
+        <v>882541.8895802239</v>
       </c>
     </row>
     <row r="17">
@@ -52895,28 +52895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>591.0262642306587</v>
+        <v>710.4320240005518</v>
       </c>
       <c r="AB17" t="n">
-        <v>808.6682089589385</v>
+        <v>972.0444372864438</v>
       </c>
       <c r="AC17" t="n">
-        <v>731.4900500688564</v>
+        <v>879.2738804647611</v>
       </c>
       <c r="AD17" t="n">
-        <v>591026.2642306588</v>
+        <v>710432.0240005518</v>
       </c>
       <c r="AE17" t="n">
-        <v>808668.2089589385</v>
+        <v>972044.4372864438</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.120949723306734e-06</v>
+        <v>1.627808456263733e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>731490.0500688563</v>
+        <v>879273.8804647611</v>
       </c>
     </row>
     <row r="18">
@@ -53001,28 +53001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>588.9574567845169</v>
+        <v>708.1926243538177</v>
       </c>
       <c r="AB18" t="n">
-        <v>805.8375753417841</v>
+        <v>968.9803918944425</v>
       </c>
       <c r="AC18" t="n">
-        <v>728.929568151304</v>
+        <v>876.5022632645575</v>
       </c>
       <c r="AD18" t="n">
-        <v>588957.4567845169</v>
+        <v>708192.6243538177</v>
       </c>
       <c r="AE18" t="n">
-        <v>805837.5753417842</v>
+        <v>968980.3918944425</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.123535617906532e-06</v>
+        <v>1.63156361227924e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>728929.568151304</v>
+        <v>876502.2632645576</v>
       </c>
     </row>
     <row r="19">
@@ -53107,28 +53107,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>582.014441982595</v>
+        <v>701.2496095518959</v>
       </c>
       <c r="AB19" t="n">
-        <v>796.3378361855996</v>
+        <v>959.4806527382577</v>
       </c>
       <c r="AC19" t="n">
-        <v>720.336470767218</v>
+        <v>867.9091658804715</v>
       </c>
       <c r="AD19" t="n">
-        <v>582014.441982595</v>
+        <v>701249.6095518959</v>
       </c>
       <c r="AE19" t="n">
-        <v>796337.8361855996</v>
+        <v>959480.6527382578</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.12678577900903e-06</v>
+        <v>1.63628339552809e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>28</v>
+        <v>27.40885416666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>720336.4707672179</v>
+        <v>867909.1658804715</v>
       </c>
     </row>
     <row r="20">
@@ -53213,28 +53213,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>581.4130268768409</v>
+        <v>700.6481944461417</v>
       </c>
       <c r="AB20" t="n">
-        <v>795.5149535053449</v>
+        <v>958.6577700580032</v>
       </c>
       <c r="AC20" t="n">
-        <v>719.5921228550437</v>
+        <v>867.1648179682973</v>
       </c>
       <c r="AD20" t="n">
-        <v>581413.026876841</v>
+        <v>700648.1944461417</v>
       </c>
       <c r="AE20" t="n">
-        <v>795514.9535053449</v>
+        <v>958657.7700580031</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.126880674223701e-06</v>
+        <v>1.636421199418567e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>28</v>
+        <v>27.40885416666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>719592.1228550437</v>
+        <v>867164.8179682973</v>
       </c>
     </row>
     <row r="21">
@@ -53319,28 +53319,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>577.7786426426012</v>
+        <v>697.0138102119018</v>
       </c>
       <c r="AB21" t="n">
-        <v>790.5422286583415</v>
+        <v>953.6850452109999</v>
       </c>
       <c r="AC21" t="n">
-        <v>715.0939878881752</v>
+        <v>862.6666830014289</v>
       </c>
       <c r="AD21" t="n">
-        <v>577778.6426426012</v>
+        <v>697013.8102119018</v>
       </c>
       <c r="AE21" t="n">
-        <v>790542.2286583416</v>
+        <v>953685.0452109999</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.125907998273319e-06</v>
+        <v>1.635008709541174e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>28</v>
+        <v>27.43489583333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>715093.9878881752</v>
+        <v>862666.6830014288</v>
       </c>
     </row>
     <row r="22">
@@ -53425,28 +53425,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>576.5124486810574</v>
+        <v>695.7476162503583</v>
       </c>
       <c r="AB22" t="n">
-        <v>788.8097662196225</v>
+        <v>951.9525827722808</v>
       </c>
       <c r="AC22" t="n">
-        <v>713.5268692330811</v>
+        <v>861.0995643463348</v>
       </c>
       <c r="AD22" t="n">
-        <v>576512.4486810574</v>
+        <v>695747.6162503583</v>
       </c>
       <c r="AE22" t="n">
-        <v>788809.7662196225</v>
+        <v>951952.5827722808</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.129490292627167e-06</v>
+        <v>1.640210806406694e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH22" t="n">
-        <v>713526.8692330811</v>
+        <v>861099.5643463348</v>
       </c>
     </row>
     <row r="23">
@@ -53531,28 +53531,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>577.5227036190448</v>
+        <v>696.7578711883456</v>
       </c>
       <c r="AB23" t="n">
-        <v>790.1920415950791</v>
+        <v>953.3348581477374</v>
       </c>
       <c r="AC23" t="n">
-        <v>714.7772221867399</v>
+        <v>862.3499172999935</v>
       </c>
       <c r="AD23" t="n">
-        <v>577522.7036190449</v>
+        <v>696757.8711883456</v>
       </c>
       <c r="AE23" t="n">
-        <v>790192.0415950791</v>
+        <v>953334.8581477373</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.129205606983152e-06</v>
+        <v>1.639797394735262e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>28</v>
+        <v>27.35677083333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>714777.2221867399</v>
+        <v>862349.9172999936</v>
       </c>
     </row>
     <row r="24">
@@ -53637,28 +53637,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>578.4582730832433</v>
+        <v>697.6934406525442</v>
       </c>
       <c r="AB24" t="n">
-        <v>791.4721290104071</v>
+        <v>954.6149455630654</v>
       </c>
       <c r="AC24" t="n">
-        <v>715.9351398557629</v>
+        <v>863.5078349690165</v>
       </c>
       <c r="AD24" t="n">
-        <v>578458.2730832433</v>
+        <v>697693.4406525441</v>
       </c>
       <c r="AE24" t="n">
-        <v>791472.1290104071</v>
+        <v>954614.9455630654</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.129442845019831e-06</v>
+        <v>1.640141904461456e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>28</v>
+        <v>27.34375</v>
       </c>
       <c r="AH24" t="n">
-        <v>715935.1398557629</v>
+        <v>863507.8349690165</v>
       </c>
     </row>
   </sheetData>
@@ -53934,28 +53934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.7846178891432</v>
+        <v>426.3186621267781</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.121130915787</v>
+        <v>583.3080013738403</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.4485177196322</v>
+        <v>527.6379044006419</v>
       </c>
       <c r="AD2" t="n">
-        <v>326784.6178891432</v>
+        <v>426318.6621267781</v>
       </c>
       <c r="AE2" t="n">
-        <v>447121.130915787</v>
+        <v>583308.0013738403</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401305110245795e-06</v>
+        <v>2.335892130364004e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.3203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>404448.5177196321</v>
+        <v>527637.9044006419</v>
       </c>
     </row>
   </sheetData>
@@ -54231,28 +54231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>645.7351724287828</v>
+        <v>780.5877768170606</v>
       </c>
       <c r="AB2" t="n">
-        <v>883.5233507422993</v>
+        <v>1068.034633343367</v>
       </c>
       <c r="AC2" t="n">
-        <v>799.2011221802644</v>
+        <v>966.1029069330981</v>
       </c>
       <c r="AD2" t="n">
-        <v>645735.1724287828</v>
+        <v>780587.7768170605</v>
       </c>
       <c r="AE2" t="n">
-        <v>883523.3507422992</v>
+        <v>1068034.633343367</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.022204145658026e-06</v>
+        <v>1.555699258028468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>799201.1221802644</v>
+        <v>966102.9069330981</v>
       </c>
     </row>
     <row r="3">
@@ -54337,28 +54337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.6455066069061</v>
+        <v>660.613029043552</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.1032778528463</v>
+        <v>903.8798905273362</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.3734211595532</v>
+        <v>817.6148623788005</v>
       </c>
       <c r="AD3" t="n">
-        <v>541645.5066069061</v>
+        <v>660613.029043552</v>
       </c>
       <c r="AE3" t="n">
-        <v>741103.2778528463</v>
+        <v>903879.8905273362</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.156423471789592e-06</v>
+        <v>1.759968539231143e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.4140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>670373.4211595532</v>
+        <v>817614.8623788005</v>
       </c>
     </row>
     <row r="4">
@@ -54443,28 +54443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>510.1213446200777</v>
+        <v>621.2316669354793</v>
       </c>
       <c r="AB4" t="n">
-        <v>697.9705286745948</v>
+        <v>849.9965735079934</v>
       </c>
       <c r="AC4" t="n">
-        <v>631.3572010256804</v>
+        <v>768.8740935100734</v>
       </c>
       <c r="AD4" t="n">
-        <v>510121.3446200776</v>
+        <v>621231.6669354793</v>
       </c>
       <c r="AE4" t="n">
-        <v>697970.5286745948</v>
+        <v>849996.5735079934</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.203218646619578e-06</v>
+        <v>1.831186425669529e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.28125</v>
       </c>
       <c r="AH4" t="n">
-        <v>631357.2010256804</v>
+        <v>768874.0935100734</v>
       </c>
     </row>
     <row r="5">
@@ -54549,28 +54549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>488.8670548865705</v>
+        <v>607.8344878146653</v>
       </c>
       <c r="AB5" t="n">
-        <v>668.8894717881251</v>
+        <v>831.6659619930666</v>
       </c>
       <c r="AC5" t="n">
-        <v>605.0515993929356</v>
+        <v>752.2929298309563</v>
       </c>
       <c r="AD5" t="n">
-        <v>488867.0548865705</v>
+        <v>607834.4878146653</v>
       </c>
       <c r="AE5" t="n">
-        <v>668889.4717881251</v>
+        <v>831665.9619930666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.225505795770877e-06</v>
+        <v>1.865105385542194e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.76041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>605051.5993929356</v>
+        <v>752292.9298309563</v>
       </c>
     </row>
     <row r="6">
@@ -54655,28 +54655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>477.4497980699808</v>
+        <v>588.4747795308109</v>
       </c>
       <c r="AB6" t="n">
-        <v>653.2678773178453</v>
+        <v>805.1771550290462</v>
       </c>
       <c r="AC6" t="n">
-        <v>590.9209079738538</v>
+        <v>728.3321774263078</v>
       </c>
       <c r="AD6" t="n">
-        <v>477449.7980699808</v>
+        <v>588474.7795308109</v>
       </c>
       <c r="AE6" t="n">
-        <v>653267.8773178454</v>
+        <v>805177.1550290461</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.242619609011324e-06</v>
+        <v>1.891151011235741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>28</v>
+        <v>27.3828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>590920.9079738538</v>
+        <v>728332.1774263078</v>
       </c>
     </row>
     <row r="7">
@@ -54761,28 +54761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>467.0571881220739</v>
+        <v>578.0821695829038</v>
       </c>
       <c r="AB7" t="n">
-        <v>639.0482498975266</v>
+        <v>790.9575276087273</v>
       </c>
       <c r="AC7" t="n">
-        <v>578.0583818371579</v>
+        <v>715.4696512896119</v>
       </c>
       <c r="AD7" t="n">
-        <v>467057.1881220739</v>
+        <v>578082.1695829039</v>
       </c>
       <c r="AE7" t="n">
-        <v>639048.2498975266</v>
+        <v>790957.5276087273</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.253096920628758e-06</v>
+        <v>1.907096501164158e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.1484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>578058.3818371579</v>
+        <v>715469.6512896118</v>
       </c>
     </row>
     <row r="8">
@@ -54867,28 +54867,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>459.3122347749544</v>
+        <v>562.5653569691118</v>
       </c>
       <c r="AB8" t="n">
-        <v>628.4512630447711</v>
+        <v>769.7267400370778</v>
       </c>
       <c r="AC8" t="n">
-        <v>568.4727565366647</v>
+        <v>696.2651002862032</v>
       </c>
       <c r="AD8" t="n">
-        <v>459312.2347749544</v>
+        <v>562565.3569691118</v>
       </c>
       <c r="AE8" t="n">
-        <v>628451.263044771</v>
+        <v>769726.7400370778</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.259419886742023e-06</v>
+        <v>1.916719465160857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>568472.7565366648</v>
+        <v>696265.1002862032</v>
       </c>
     </row>
     <row r="9">
@@ -54973,28 +54973,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>459.6977284592081</v>
+        <v>562.9508506533655</v>
       </c>
       <c r="AB9" t="n">
-        <v>628.9787125103478</v>
+        <v>770.2541895026549</v>
       </c>
       <c r="AC9" t="n">
-        <v>568.9498669655268</v>
+        <v>696.7422107150653</v>
       </c>
       <c r="AD9" t="n">
-        <v>459697.728459208</v>
+        <v>562950.8506533655</v>
       </c>
       <c r="AE9" t="n">
-        <v>628978.7125103478</v>
+        <v>770254.1895026548</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259289246946294e-06</v>
+        <v>1.916520643590678e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.01822916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>568949.8669655268</v>
+        <v>696742.2107150654</v>
       </c>
     </row>
   </sheetData>
@@ -55270,28 +55270,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>786.2162900135628</v>
+        <v>933.1230194221037</v>
       </c>
       <c r="AB2" t="n">
-        <v>1075.735813411299</v>
+        <v>1276.740081655555</v>
       </c>
       <c r="AC2" t="n">
-        <v>973.0690971840203</v>
+        <v>1154.889800178307</v>
       </c>
       <c r="AD2" t="n">
-        <v>786216.2900135628</v>
+        <v>933123.0194221037</v>
       </c>
       <c r="AE2" t="n">
-        <v>1075735.813411299</v>
+        <v>1276740.081655555</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.088978607268388e-07</v>
+        <v>1.356903336052227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.04166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>973069.0971840203</v>
+        <v>1154889.800178307</v>
       </c>
     </row>
     <row r="3">
@@ -55376,28 +55376,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.9910901969741</v>
+        <v>757.5652877909014</v>
       </c>
       <c r="AB3" t="n">
-        <v>857.8768705021922</v>
+        <v>1036.534248177244</v>
       </c>
       <c r="AC3" t="n">
-        <v>776.0023060192121</v>
+        <v>937.6088743161611</v>
       </c>
       <c r="AD3" t="n">
-        <v>626991.0901969741</v>
+        <v>757565.2877909014</v>
       </c>
       <c r="AE3" t="n">
-        <v>857876.8705021922</v>
+        <v>1036534.248177244</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.065743178089542e-06</v>
+        <v>1.59105938765018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>776002.3060192121</v>
+        <v>937608.874316161</v>
       </c>
     </row>
     <row r="4">
@@ -55482,28 +55482,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>586.372504971582</v>
+        <v>708.6952300664575</v>
       </c>
       <c r="AB4" t="n">
-        <v>802.3007302313011</v>
+        <v>969.6680792038755</v>
       </c>
       <c r="AC4" t="n">
-        <v>725.7302745741722</v>
+        <v>877.1243186623534</v>
       </c>
       <c r="AD4" t="n">
-        <v>586372.504971582</v>
+        <v>708695.2300664575</v>
       </c>
       <c r="AE4" t="n">
-        <v>802300.7302313012</v>
+        <v>969668.0792038755</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.122469110832589e-06</v>
+        <v>1.675746139270611e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.1796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>725730.2745741722</v>
+        <v>877124.3186623534</v>
       </c>
     </row>
     <row r="5">
@@ -55588,28 +55588,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>561.2991861189868</v>
+        <v>683.5365703592909</v>
       </c>
       <c r="AB5" t="n">
-        <v>767.9943092204213</v>
+        <v>935.244891070798</v>
       </c>
       <c r="AC5" t="n">
-        <v>694.6980102352064</v>
+        <v>845.9864312914489</v>
       </c>
       <c r="AD5" t="n">
-        <v>561299.1861189868</v>
+        <v>683536.5703592908</v>
       </c>
       <c r="AE5" t="n">
-        <v>767994.3092204214</v>
+        <v>935244.8910707979</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.150316386906448e-06</v>
+        <v>1.71731963552064e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.4765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>694698.0102352065</v>
+        <v>845986.4312914489</v>
       </c>
     </row>
     <row r="6">
@@ -55694,28 +55694,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>549.4662012194511</v>
+        <v>663.7080460158672</v>
       </c>
       <c r="AB6" t="n">
-        <v>751.8038972464263</v>
+        <v>908.1146292913701</v>
       </c>
       <c r="AC6" t="n">
-        <v>680.0527884566235</v>
+        <v>821.4454436186883</v>
       </c>
       <c r="AD6" t="n">
-        <v>549466.2012194511</v>
+        <v>663708.0460158673</v>
       </c>
       <c r="AE6" t="n">
-        <v>751803.8972464263</v>
+        <v>908114.62929137</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.169686217599196e-06</v>
+        <v>1.746237062903226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.0078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>680052.7884566234</v>
+        <v>821445.4436186883</v>
       </c>
     </row>
     <row r="7">
@@ -55800,28 +55800,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>532.7099787960921</v>
+        <v>655.0326143824167</v>
       </c>
       <c r="AB7" t="n">
-        <v>728.8772944944257</v>
+        <v>896.2445209974513</v>
       </c>
       <c r="AC7" t="n">
-        <v>659.3142684935847</v>
+        <v>810.7082018005394</v>
       </c>
       <c r="AD7" t="n">
-        <v>532709.9787960921</v>
+        <v>655032.6143824167</v>
       </c>
       <c r="AE7" t="n">
-        <v>728877.2944944256</v>
+        <v>896244.5209974514</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.181584827881884e-06</v>
+        <v>1.764000625438243e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>28</v>
+        <v>27.72135416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>659314.2684935847</v>
+        <v>810708.2018005394</v>
       </c>
     </row>
     <row r="8">
@@ -55906,28 +55906,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>524.2881965993342</v>
+        <v>638.6152927417709</v>
       </c>
       <c r="AB8" t="n">
-        <v>717.3542405500131</v>
+        <v>873.7816172476062</v>
       </c>
       <c r="AC8" t="n">
-        <v>648.8909586449191</v>
+        <v>790.3891260576961</v>
       </c>
       <c r="AD8" t="n">
-        <v>524288.1965993342</v>
+        <v>638615.2927417709</v>
       </c>
       <c r="AE8" t="n">
-        <v>717354.240550013</v>
+        <v>873781.6172476062</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.190037117638719e-06</v>
+        <v>1.77661913920519e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>28</v>
+        <v>27.52604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>648890.9586449191</v>
+        <v>790389.1260576961</v>
       </c>
     </row>
     <row r="9">
@@ -56012,28 +56012,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>516.9560063188394</v>
+        <v>631.1125102606838</v>
       </c>
       <c r="AB9" t="n">
-        <v>707.3220143348345</v>
+        <v>863.5159792575806</v>
       </c>
       <c r="AC9" t="n">
-        <v>639.8161940193993</v>
+        <v>781.103226149525</v>
       </c>
       <c r="AD9" t="n">
-        <v>516956.0063188394</v>
+        <v>631112.5102606838</v>
       </c>
       <c r="AE9" t="n">
-        <v>707322.0143348345</v>
+        <v>863515.9792575806</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.198464251771278e-06</v>
+        <v>1.789200097871639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>28</v>
+        <v>27.33072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>639816.1940193992</v>
+        <v>781103.226149525</v>
       </c>
     </row>
     <row r="10">
@@ -56118,28 +56118,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>510.3035036896273</v>
+        <v>624.4600076314716</v>
       </c>
       <c r="AB10" t="n">
-        <v>698.2197667498438</v>
+        <v>854.4137316725898</v>
       </c>
       <c r="AC10" t="n">
-        <v>631.5826521688352</v>
+        <v>772.8696842989611</v>
       </c>
       <c r="AD10" t="n">
-        <v>510303.5036896273</v>
+        <v>624460.0076314716</v>
       </c>
       <c r="AE10" t="n">
-        <v>698219.7667498437</v>
+        <v>854413.7316725899</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.203243820383774e-06</v>
+        <v>1.796335566966044e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>28</v>
+        <v>27.2265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>631582.6521688353</v>
+        <v>772869.6842989612</v>
       </c>
     </row>
     <row r="11">
@@ -56224,28 +56224,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>504.553106587013</v>
+        <v>618.7096105288574</v>
       </c>
       <c r="AB11" t="n">
-        <v>690.3518197444314</v>
+        <v>846.5457846671774</v>
       </c>
       <c r="AC11" t="n">
-        <v>624.4656109828863</v>
+        <v>765.7526431130121</v>
       </c>
       <c r="AD11" t="n">
-        <v>504553.106587013</v>
+        <v>618709.6105288574</v>
       </c>
       <c r="AE11" t="n">
-        <v>690351.8197444314</v>
+        <v>846545.7846671774</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.205432359695812e-06</v>
+        <v>1.799602860709271e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27.17447916666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>624465.6109828864</v>
+        <v>765752.6431130122</v>
       </c>
     </row>
     <row r="12">
@@ -56330,28 +56330,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>500.5857779279644</v>
+        <v>614.7422818698089</v>
       </c>
       <c r="AB12" t="n">
-        <v>684.9235456469333</v>
+        <v>841.1175105696793</v>
       </c>
       <c r="AC12" t="n">
-        <v>619.5554037466229</v>
+        <v>760.8424358767489</v>
       </c>
       <c r="AD12" t="n">
-        <v>500585.7779279644</v>
+        <v>614742.2818698089</v>
       </c>
       <c r="AE12" t="n">
-        <v>684923.5456469334</v>
+        <v>841117.5105696793</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.207570587759297e-06</v>
+        <v>1.802795044251505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>619555.403746623</v>
+        <v>760842.435876749</v>
       </c>
     </row>
     <row r="13">
@@ -56436,28 +56436,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>498.8490164698032</v>
+        <v>605.0099809677596</v>
       </c>
       <c r="AB13" t="n">
-        <v>682.5472319993693</v>
+        <v>827.8013471166826</v>
       </c>
       <c r="AC13" t="n">
-        <v>617.4058821384053</v>
+        <v>748.7971483743534</v>
       </c>
       <c r="AD13" t="n">
-        <v>498849.0164698032</v>
+        <v>605009.9809677596</v>
       </c>
       <c r="AE13" t="n">
-        <v>682547.2319993692</v>
+        <v>827801.3471166826</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.210513795799624e-06</v>
+        <v>1.807188991009638e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27.05729166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>617405.8821384053</v>
+        <v>748797.1483743533</v>
       </c>
     </row>
   </sheetData>
